--- a/VITAMIN_DEMO/app/data/Spices.xlsx
+++ b/VITAMIN_DEMO/app/data/Spices.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="228">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -107,13 +107,16 @@
     <t xml:space="preserve">Recipes_URL</t>
   </si>
   <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ground Allspice</t>
   </si>
   <si>
     <t xml:space="preserve">oz</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_allspice.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-ground#ProductRecipes</t>
@@ -122,7 +125,7 @@
     <t xml:space="preserve">Whole Allspice</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-whole</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_allspice.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-whole#ProductRecipes</t>
@@ -134,7 +137,7 @@
     <t xml:space="preserve">Potassium Aluminum Sulfate</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/alum</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/alum.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Apple Pie Spice</t>
@@ -143,7 +146,7 @@
     <t xml:space="preserve">Cinnamon, Nutmeg and Allspice</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/apple-pie-spice</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/apple_pie.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/apple-pie-spice#ProductRecipes</t>
@@ -155,7 +158,7 @@
     <t xml:space="preserve">52100006963 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/basil-leaves</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/basil_leaves.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/basil-leaves#ProductRecipes</t>
@@ -164,7 +167,7 @@
     <t xml:space="preserve">Bay Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/bay-leaves</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/bay_leaves.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/bay-leaves#ProductRecipes</t>
@@ -176,7 +179,7 @@
     <t xml:space="preserve">52100030043 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-pepper-coarse-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/coarse_black_pepper.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-pepper-coarse-ground#ProductRecipes</t>
@@ -185,7 +188,7 @@
     <t xml:space="preserve">Pure Ground Black Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-pepper-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pure_black_pepper.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-pepper-ground#ProductRecipes</t>
@@ -197,7 +200,7 @@
     <t xml:space="preserve">Black Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-peppercorns-whole</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_black_pepper.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-peppercorns-whole#ProductRecipes</t>
@@ -209,7 +212,7 @@
     <t xml:space="preserve">Caraway Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/caraway-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/caraway.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/caraway-seed#ProductRecipes</t>
@@ -221,7 +224,7 @@
     <t xml:space="preserve">Celery and Suffixing Agent</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/celery-flakes</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_flakes.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Celery Salt</t>
@@ -230,7 +233,7 @@
     <t xml:space="preserve">Salt &amp; Celery Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/celery-salt</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_salt.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/celery-salt#ProductRecipes</t>
@@ -242,7 +245,7 @@
     <t xml:space="preserve">Celery Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/celery-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_seed.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/celery-seed#ProductRecipes</t>
@@ -254,7 +257,7 @@
     <t xml:space="preserve">Chili Pepper, Spices, Salt, Silicon DIoxide (to Make Free Flowing) and Garlic</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chili-powder</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chili_powder.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chili-powder#ProductRecipes</t>
@@ -266,7 +269,7 @@
     <t xml:space="preserve">Chili Pepper and Silicon Dioxide (Added to Make Free Flowing).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chipotle-chili-pepper</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chipotle.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chipotle-chili-pepper#ProductRecipes</t>
@@ -275,7 +278,7 @@
     <t xml:space="preserve">Freeze-Dried Chives</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chives</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chives.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chives#ProductRecipes</t>
@@ -284,7 +287,7 @@
     <t xml:space="preserve">Cilantro Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cilantro-leaves</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cilantro-leaves.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cilantro-leaves#ProductRecipes</t>
@@ -293,7 +296,7 @@
     <t xml:space="preserve">Ground Cinnamon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cinnamon.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-ground#ProductRecipes</t>
@@ -305,7 +308,7 @@
     <t xml:space="preserve">Cinnamon Stick</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-sticks</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cinnamon_sticks.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-sticks#ProductRecipes</t>
@@ -317,7 +320,7 @@
     <t xml:space="preserve">Sugar, Cinnamon, and Extractives of Cinnamon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-sugar</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cinnamon_sugar.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-sugar#ProductRecipes</t>
@@ -326,7 +329,7 @@
     <t xml:space="preserve">Ground Cloves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cloves-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cloves.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cloves-ground#ProductRecipes</t>
@@ -338,7 +341,7 @@
     <t xml:space="preserve">52100002347 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cloves-whole</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_cloves.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cloves-whole#ProductRecipes</t>
@@ -347,7 +350,7 @@
     <t xml:space="preserve">Cream of Tartar</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cream-of-tartar</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cream_of_tarter.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cream-of-tartar#ProductRecipes</t>
@@ -356,7 +359,7 @@
     <t xml:space="preserve">Ground Cumin</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cumin-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cumin.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cumin-ground#ProductRecipes</t>
@@ -365,7 +368,7 @@
     <t xml:space="preserve">Cumin Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cumin-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cumin_seed.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cumin-seed#ProductRecipes</t>
@@ -377,7 +380,7 @@
     <t xml:space="preserve">Coriander, Fenugreek, Turmeric, Cumin, Black Pepper, Bay Leaves, Celery Seed, Nutmeg, Clove, Onion, Ginger, and Red Pepper.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/curry-powder</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/curry_powder.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/curry-powder#ProductRecipes</t>
@@ -386,7 +389,7 @@
     <t xml:space="preserve">Dill Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/dill-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/dill_seed.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/dill-seed#ProductRecipes</t>
@@ -395,7 +398,7 @@
     <t xml:space="preserve">Dill Weed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/dill-weed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/dill_weed.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/dill-weed#ProductRecipes</t>
@@ -404,7 +407,7 @@
     <t xml:space="preserve">Fennel Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/fennel-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/fennel_seed.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/fennel-seed#ProductRecipes</t>
@@ -413,7 +416,7 @@
     <t xml:space="preserve">Minced Garlic</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-minced</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/minced_garlic.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-minced#ProductRecipes</t>
@@ -425,7 +428,7 @@
     <t xml:space="preserve">Garlic Powder</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-powder</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/garlic_powder.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-powder#ProductRecipes</t>
@@ -437,7 +440,7 @@
     <t xml:space="preserve">Salt, Garlic, Calcium Silicate (to Make Free Flowing), and Garlic Oil.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-salt</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/garlic_salt.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-salt#ProductRecipes</t>
@@ -449,7 +452,7 @@
     <t xml:space="preserve">Ginger and Sulfiting Agent (Added to Preserve Color)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/ginger-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_ginger.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/ginger-ground#ProductRecipes</t>
@@ -458,7 +461,7 @@
     <t xml:space="preserve">Ground Mace</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mace-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_mace.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mace-ground#ProductRecipes</t>
@@ -467,7 +470,7 @@
     <t xml:space="preserve">Marjoram Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/marjoram-leaves</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/marjoram_leaves.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/marjoram-leaves#ProductRecipes</t>
@@ -479,7 +482,7 @@
     <t xml:space="preserve">Cinnamon, Allspice, Mustard Seed, Coriander, Bay Leaves, Ginger, Clove, Red Pepper, Black Pepper, Cardamom, Mace, and Sulfiting Agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mixed-pickling-spice</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pickling_spice.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mixed-pickling-spice#ProductRecipes</t>
@@ -488,7 +491,7 @@
     <t xml:space="preserve">Ground Mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mustard-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_mustard.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mustard-ground#ProductRecipes</t>
@@ -497,7 +500,7 @@
     <t xml:space="preserve">Yellow Mustard Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mustard-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/yellow_mustard_seed.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mustard-seed#ProductRecipes</t>
@@ -506,7 +509,7 @@
     <t xml:space="preserve">Ground Nutmeg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/nutmeg-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_nutmeg.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/nutmeg-ground#ProductRecipes</t>
@@ -515,7 +518,7 @@
     <t xml:space="preserve">Onion Powder</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onion-powder</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/onion_powder.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onion-powder#ProductRecipes</t>
@@ -527,7 +530,7 @@
     <t xml:space="preserve">Salt, Onion, Sodium Silicoaluminate (to Make Free Flowing) &amp; Extractives of Onion</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onion-salt</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/onion_salt.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onion-salt#ProductRecipes</t>
@@ -536,16 +539,19 @@
     <t xml:space="preserve">Chopped Onions</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onions-chopped</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chopped_onions.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onions-chopped#ProductRecipes</t>
   </si>
   <si>
+    <t xml:space="preserve">Minced Onions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mined Onions</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onions-minced</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/minced_onions.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onions-minced#ProductRecipes</t>
@@ -557,7 +563,7 @@
     <t xml:space="preserve">52100003566 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_oregano.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-ground#ProductRecipes</t>
@@ -566,7 +572,7 @@
     <t xml:space="preserve">Oregano Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-leaves</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/oregano_leaves.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-leaves#ProductRecipes</t>
@@ -575,7 +581,7 @@
     <t xml:space="preserve">Ground Organic Black Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/organic-ground-black-pepper</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/organic_black_pepper.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/organic-ground-black-pepper#ProductRecipes</t>
@@ -587,7 +593,7 @@
     <t xml:space="preserve">Paprika and Silicon Dioxide (to Make Free Flowing)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/paprika</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/paprika.webp </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/paprika#ProductRecipes</t>
@@ -596,7 +602,7 @@
     <t xml:space="preserve">Smoked Paprika</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/paprika-smoked</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/smoked_paprika.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/paprika-smoked#ProductRecipes</t>
@@ -605,7 +611,7 @@
     <t xml:space="preserve">Parsley Flakes</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/parsley-flakes</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/parsley_flakes.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/parsley-flakes#ProductRecipes</t>
@@ -614,7 +620,7 @@
     <t xml:space="preserve">Poppy Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/poppy-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/poppy_seed.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/poppy-seed#ProductRecipes</t>
@@ -626,7 +632,7 @@
     <t xml:space="preserve">THYME, SAGE, MARJORAM, ROSEMARY, BLACK PEPPER, AND NUTMEG</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/poultry-seasoning</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/poultry_seasoning.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/poultry-seasoning#ProductRecipes</t>
@@ -638,7 +644,7 @@
     <t xml:space="preserve">Cinnamon, Ginger, Nutmeg, Allspice and Sulfiting Agents</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/pumpkin-pie-spice</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pumpkin_pie_spice.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/pumpkin-pie-spice#ProductRecipes</t>
@@ -650,7 +656,7 @@
     <t xml:space="preserve">Red Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/red-pepper-crushed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/crushed_red_pepper.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/red-pepper-crushed#ProductRecipes</t>
@@ -659,7 +665,7 @@
     <t xml:space="preserve">Ground Cayenne Red Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/red-pepper-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/red-pepper-ground#ProductRecipes</t>
@@ -671,7 +677,7 @@
     <t xml:space="preserve">Rosemary Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/rosemary-leaves</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/rosemary_leaves.webp </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/rosemary-leaves#ProductRecipes</t>
@@ -683,7 +689,7 @@
     <t xml:space="preserve">Sage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sage-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_sage.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sage-ground#ProductRecipes</t>
@@ -692,7 +698,7 @@
     <t xml:space="preserve">Rubbed Sage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sage-rubbed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/rubbed_sage.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sage-rubbed#ProductRecipes</t>
@@ -704,7 +710,7 @@
     <t xml:space="preserve">Sesame Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sesame-seed</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/sesame_seeds.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sesame-seed#ProductRecipes</t>
@@ -713,7 +719,7 @@
     <t xml:space="preserve">Tarragon Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/tarragon-leaves</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/tarragon_leaves.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/tarragon-leaves#ProductRecipes</t>
@@ -722,7 +728,7 @@
     <t xml:space="preserve">Ground Thyme</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/thyme-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_thyme.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/thyme-ground#ProductRecipes</t>
@@ -734,13 +740,16 @@
     <t xml:space="preserve">Thyme Leaves</t>
   </si>
   <si>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/thyme_leaves.webp </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/thyme-leaves</t>
   </si>
   <si>
     <t xml:space="preserve">Ground Tumeric</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/ground-turmeric-powder</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_turmeric.png </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/ground-turmeric-powder#ProductRecipes</t>
@@ -749,10 +758,13 @@
     <t xml:space="preserve">Ground White Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/white-pepper-ground</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/white_pepper.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/white-pepper-ground#ProductRecipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/white_pepper.webp </t>
   </si>
 </sst>
 </file>
@@ -763,7 +775,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -823,6 +835,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -869,7 +888,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,11 +945,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,19 +1043,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="2" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="84.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="104"/>
   </cols>
@@ -1054,16 +1086,19 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>52100002125</v>
@@ -1072,13 +1107,13 @@
         <v>0.9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="11" t="n">
         <v>52100002132</v>
@@ -1098,24 +1133,24 @@
         <v>0.75</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>52100002149</v>
@@ -1124,21 +1159,21 @@
         <v>1.9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>52100002620</v>
@@ -1147,50 +1182,50 @@
         <v>1.12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0.62</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>52100029283</v>
@@ -1199,24 +1234,24 @@
         <v>3.5</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11" t="n">
         <v>52100071121</v>
@@ -1225,24 +1260,24 @@
         <v>1.25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="11" t="n">
         <v>52100302003</v>
@@ -1251,24 +1286,24 @@
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>52100006987</v>
@@ -1277,24 +1312,24 @@
         <v>0.12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>52100302164</v>
@@ -1303,50 +1338,50 @@
         <v>2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1.5</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="n">
         <v>52100030258</v>
@@ -1355,24 +1390,24 @@
         <v>3.12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="n">
         <v>52100029924</v>
@@ -1381,24 +1416,24 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="11" t="n">
         <v>52100029962</v>
@@ -1407,24 +1442,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="11" t="n">
         <v>52100030104</v>
@@ -1433,24 +1468,24 @@
         <v>6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11" t="n">
         <v>52100052311</v>
@@ -1459,24 +1494,24 @@
         <v>3</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="11" t="n">
         <v>52100030340</v>
@@ -1485,24 +1520,24 @@
         <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="11" t="n">
         <v>52100030234</v>
@@ -1511,24 +1546,24 @@
         <v>1.87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="11" t="n">
         <v>52100030388</v>
@@ -1537,24 +1572,24 @@
         <v>3.5</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="11" t="n">
         <v>52100030081</v>
@@ -1563,24 +1598,24 @@
         <v>17.5</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="11" t="n">
         <v>52100002170</v>
@@ -1589,24 +1624,24 @@
         <v>0.9</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="11" t="n">
         <v>52100007069</v>
@@ -1615,21 +1650,21 @@
         <v>0.5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="11" t="n">
         <v>52100005089</v>
@@ -1638,24 +1673,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="11" t="n">
         <v>52100002187</v>
@@ -1664,24 +1699,24 @@
         <v>0.95</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="11" t="n">
         <v>52100004280</v>
@@ -1690,24 +1725,24 @@
         <v>2.5</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="11" t="n">
         <v>52100071084</v>
@@ -1716,24 +1751,24 @@
         <v>4.5</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" s="11" t="n">
         <v>52100006383</v>
@@ -1742,24 +1777,24 @@
         <v>0.9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="11" t="n">
         <v>52100028125</v>
@@ -1768,24 +1803,24 @@
         <v>2.12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="11" t="n">
         <v>52100007076</v>
@@ -1794,24 +1829,24 @@
         <v>0.16</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="11" t="n">
         <v>52100008387</v>
@@ -1820,24 +1855,24 @@
         <v>0.5</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="11" t="n">
         <v>52100004389</v>
@@ -1846,24 +1881,24 @@
         <v>2.37</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="11" t="n">
         <v>52100015828</v>
@@ -1872,24 +1907,24 @@
         <v>15</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="11" t="n">
         <v>52100035994</v>
@@ -1898,24 +1933,24 @@
         <v>0.46</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" s="11" t="n">
         <v>52100071091</v>
@@ -1924,24 +1959,24 @@
         <v>4.12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D36" s="11" t="n">
         <v>52100304441</v>
@@ -1950,24 +1985,24 @@
         <v>18</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="11" t="n">
         <v>52100004426</v>
@@ -1976,24 +2011,24 @@
         <v>0.75</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="11" t="n">
         <v>52100004440</v>
@@ -2002,24 +2037,24 @@
         <v>3.62</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="11" t="n">
         <v>52100015828</v>
@@ -2028,24 +2063,24 @@
         <v>15</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="11" t="n">
         <v>52100002330</v>
@@ -2054,50 +2089,50 @@
         <v>0.9</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0.62</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D42" s="11" t="n">
         <v>52100002361</v>
@@ -2106,24 +2141,24 @@
         <v>1.5</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" s="11" t="n">
         <v>52100006512</v>
@@ -2132,24 +2167,24 @@
         <v>1.5</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" s="11" t="n">
         <v>52100010236</v>
@@ -2158,24 +2193,24 @@
         <v>7.62</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="11" t="n">
         <v>52100038070</v>
@@ -2184,24 +2219,24 @@
         <v>4.5</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" s="11" t="n">
         <v>52100324135</v>
@@ -2210,24 +2245,24 @@
         <v>14</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="11" t="n">
         <v>52100002415</v>
@@ -2236,24 +2271,24 @@
         <v>0.95</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="11" t="n">
         <v>52100039565</v>
@@ -2262,24 +2297,24 @@
         <v>1.75</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" s="11" t="n">
         <v>52100324142</v>
@@ -2288,24 +2323,24 @@
         <v>16</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" s="11" t="n">
         <v>52100002484</v>
@@ -2314,24 +2349,24 @@
         <v>0.85</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51" s="11" t="n">
         <v>52100003269</v>
@@ -2340,13 +2375,13 @@
         <v>0.3</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,10 +2389,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" s="11" t="n">
         <v>52100002491</v>
@@ -2366,24 +2401,24 @@
         <v>0.85</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D53" s="11" t="n">
         <v>52100005966</v>
@@ -2392,24 +2427,24 @@
         <v>3</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D54" s="11" t="n">
         <v>52100006260</v>
@@ -2418,24 +2453,24 @@
         <v>3.12</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D55" s="11" t="n">
         <v>52100071183</v>
@@ -2444,24 +2479,24 @@
         <v>5.37</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D56" s="11" t="n">
         <v>52100106489</v>
@@ -2470,24 +2505,24 @@
         <v>21</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D57" s="11" t="n">
         <v>52100005935</v>
@@ -2496,24 +2531,24 @@
         <v>5.25</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58" s="11" t="n">
         <v>52100038346</v>
@@ -2522,24 +2557,24 @@
         <v>15.75</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D59" s="11" t="n">
         <v>52100071176</v>
@@ -2548,24 +2583,24 @@
         <v>9.5</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D60" s="11" t="n">
         <v>52100103532</v>
@@ -2574,24 +2609,24 @@
         <v>41.25</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D61" s="11" t="n">
         <v>52100037509</v>
@@ -2600,24 +2635,24 @@
         <v>0.7</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D62" s="11" t="n">
         <v>52100039480</v>
@@ -2626,24 +2661,24 @@
         <v>1.5</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D63" s="11" t="n">
         <v>52100002521</v>
@@ -2652,24 +2687,24 @@
         <v>0.9</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D64" s="11" t="n">
         <v>52100003467</v>
@@ -2678,24 +2713,24 @@
         <v>0.2</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65" s="11" t="n">
         <v>52100005027</v>
@@ -2704,24 +2739,24 @@
         <v>1.5</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D66" s="11" t="n">
         <v>52100002538</v>
@@ -2730,24 +2765,24 @@
         <v>0.85</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>52100004464</v>
@@ -2756,24 +2791,24 @@
         <v>1.75</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="13" t="n">
         <v>52100002545</v>
@@ -2782,24 +2817,24 @@
         <v>1.4</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D69" s="13" t="n">
         <v>52100002569</v>
@@ -2808,24 +2843,24 @@
         <v>1.1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D70" s="13" t="n">
         <v>52100015156</v>
@@ -2834,24 +2869,24 @@
         <v>22</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D71" s="13" t="n">
         <v>52100006475</v>
@@ -2860,24 +2895,24 @@
         <v>2.62</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D72" s="13" t="n">
         <v>52100038063</v>
@@ -2886,24 +2921,24 @@
         <v>7.62</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D73" s="13" t="n">
         <v>52100071220</v>
@@ -2912,24 +2947,24 @@
         <v>4.5</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="14" t="s">
         <v>147</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="D74" s="13" t="n">
         <v>52100006567</v>
@@ -2938,24 +2973,24 @@
         <v>5.12</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>148</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75" s="13" t="n">
         <v>52100017617</v>
@@ -2964,24 +2999,24 @@
         <v>15.5</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D76" s="13" t="n">
         <v>52100071190</v>
@@ -2990,13 +3025,13 @@
         <v>3</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3039,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D77" s="13" t="n">
         <v>52100006468</v>
@@ -3016,24 +3051,24 @@
         <v>2</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D78" s="13" t="n">
         <v>52100038230</v>
@@ -3042,24 +3077,24 @@
         <v>6.37</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D79" s="13" t="n">
         <v>52100071213</v>
@@ -3068,24 +3103,24 @@
         <v>3.5</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D80" s="13" t="n">
         <v>52100302171</v>
@@ -3094,13 +3129,13 @@
         <v>17</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,36 +3143,36 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>0.75</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>158</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D82" s="13" t="n">
         <v>5210030204</v>
@@ -3146,24 +3181,24 @@
         <v>5</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>161</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D83" s="13" t="n">
         <v>52100007168</v>
@@ -3172,24 +3207,24 @@
         <v>0.75</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>161</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D84" s="13" t="n">
         <v>52100038391</v>
@@ -3198,24 +3233,24 @@
         <v>2.12</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>161</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D85" s="13" t="n">
         <v>52100071138</v>
@@ -3224,24 +3259,24 @@
         <v>1.37</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>161</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D86" s="13" t="n">
         <v>52100302041</v>
@@ -3250,195 +3285,195 @@
         <v>5</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>161</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="15" t="n">
+        <v>165</v>
+      </c>
+      <c r="D87" s="17" t="n">
         <v>52100043036</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>164</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88" s="15" t="n">
+        <v>168</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="17" t="n">
         <v>52100004488</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>2.12</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>168</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="15" t="n">
+        <v>168</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="17" t="n">
         <v>52100015170</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>18.4</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>168</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D90" s="15" t="n">
+        <v>168</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="17" t="n">
         <v>52100038315</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>6.6</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>168</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" s="15" t="n">
+        <v>168</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="17" t="n">
         <v>52100302140</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>168</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="15" t="n">
+        <v>172</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="17" t="n">
         <v>52100006253</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>0.9</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>171</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="15" t="n">
+        <v>172</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="17" t="n">
         <v>52100022765</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1.75</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>171</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,722 +3481,722 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="15" t="n">
+        <v>175</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="17" t="n">
         <v>52100038247</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>0.87</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="15" t="n">
+        <v>175</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" s="17" t="n">
         <v>52100007380</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>0.25</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D96" s="15" t="n">
+        <v>175</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" s="17" t="n">
         <v>52100015194</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>2.7</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="15" t="n">
+        <v>175</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="17" t="n">
         <v>52100071145</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" s="15" t="n">
+        <v>178</v>
+      </c>
+      <c r="D98" s="17" t="n">
         <v>52100002583</v>
       </c>
       <c r="F98" s="7"/>
-      <c r="G98" s="0" t="s">
-        <v>177</v>
+      <c r="G98" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D99" s="15" t="n">
+        <v>178</v>
+      </c>
+      <c r="D99" s="17" t="n">
         <v>52100039541</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>2.37</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" s="15" t="n">
+        <v>181</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="17" t="n">
         <v>52100002637</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>0.65</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>181</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="15" t="n">
+        <v>185</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="17" t="n">
         <v>52100039503</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>185</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D102" s="15" t="n">
+        <v>189</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="17" t="n">
         <v>52100006765</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>1.5</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>189</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D103" s="15" t="n">
+        <v>189</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="17" t="n">
         <v>52100038353</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>4.62</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>189</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" s="15" t="n">
+        <v>189</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="17" t="n">
         <v>52100071275</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>2.62</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>189</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D105" s="15" t="n">
+        <v>189</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="17" t="n">
         <v>52100106502</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="0" t="s">
-        <v>189</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D106" s="15" t="n">
+        <v>193</v>
+      </c>
+      <c r="D106" s="17" t="n">
         <v>52100002866</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>192</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D107" s="15" t="n">
+        <v>193</v>
+      </c>
+      <c r="D107" s="17" t="n">
         <v>52100028149</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>1.75</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>192</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D108" s="15" t="n">
+        <v>193</v>
+      </c>
+      <c r="D108" s="17" t="n">
         <v>52100038261</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>192</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="15" t="n">
+        <v>193</v>
+      </c>
+      <c r="D109" s="17" t="n">
         <v>52100302362</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>192</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D110" s="15" t="n">
+        <v>197</v>
+      </c>
+      <c r="D110" s="17" t="n">
         <v>5210004228</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>0.62</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>196</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="15" t="n">
+        <v>201</v>
+      </c>
+      <c r="D111" s="17" t="n">
         <v>5210004228</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D112" s="15" t="n">
+        <v>204</v>
+      </c>
+      <c r="D112" s="17" t="n">
         <v>52100008844</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>203</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D113" s="15" t="n">
+        <v>208</v>
+      </c>
+      <c r="D113" s="17" t="n">
         <v>52100002590</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D114" s="15" t="n">
+        <v>208</v>
+      </c>
+      <c r="D114" s="17" t="n">
         <v>52100039527</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D115" s="15" t="n">
+        <v>211</v>
+      </c>
+      <c r="D115" s="17" t="n">
         <v>52100004181</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>0.2</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>210</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D116" s="15" t="n">
+        <v>214</v>
+      </c>
+      <c r="D116" s="17" t="n">
         <v>52100004242</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>213</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D117" s="15" t="n">
+        <v>218</v>
+      </c>
+      <c r="D117" s="17" t="n">
         <v>5210004225</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>0.75</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>217</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D118" s="15" t="n">
+        <v>221</v>
+      </c>
+      <c r="D118" s="17" t="n">
         <v>52100002613</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>0.95</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D119" s="15" t="n">
+        <v>221</v>
+      </c>
+      <c r="D119" s="17" t="n">
         <v>52100011745</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>1.87</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D120" s="15" t="n">
+        <v>221</v>
+      </c>
+      <c r="D120" s="17" t="n">
         <v>52100038360</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>5.87</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D121" s="15" t="n">
+        <v>221</v>
+      </c>
+      <c r="D121" s="17" t="n">
         <v>52100041995</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,63 +4204,432 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D122" s="15" t="n">
+        <v>224</v>
+      </c>
+      <c r="D122" s="17" t="n">
         <v>52100002699</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>222</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D123" s="15" t="n">
+        <v>224</v>
+      </c>
+      <c r="D123" s="17" t="n">
         <v>52100324210</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>222</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F139" s="18"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="18"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F144" s="18"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F145" s="18"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F147" s="18"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F148" s="18"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F149" s="18"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F150" s="18"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="18"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F152" s="18"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F153" s="18"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F154" s="18"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F155" s="18"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F157" s="18"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F158" s="18"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F159" s="18"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F160" s="18"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F161" s="18"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F162" s="18"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F163" s="18"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F164" s="18"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F165" s="18"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F166" s="18"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F167" s="18"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F168" s="18"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F169" s="18"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="18"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="18"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F172" s="18"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F173" s="18"/>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F174" s="18"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F175" s="18"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F176" s="18"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F177" s="18"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F178" s="18"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F179" s="18"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F181" s="18"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F182" s="18"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F183" s="18"/>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F184" s="18"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F185" s="18"/>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F186" s="18"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F187" s="18"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F188" s="18"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F189" s="18"/>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F190" s="18"/>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F191" s="18"/>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F192" s="18"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F193" s="18"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F194" s="18"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F195" s="18"/>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F196" s="18"/>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F197" s="18"/>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F198" s="18"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F199" s="18"/>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F200" s="18"/>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId2" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-ground"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://vitamin.foobar.in/static/image/"/>
     <hyperlink ref="H2" r:id="rId3" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-ground#ProductRecipes"/>
-    <hyperlink ref="H3" r:id="rId4" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-whole#ProductRecipes"/>
-    <hyperlink ref="G52" r:id="rId5" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/fennel-seed"/>
-    <hyperlink ref="G77" r:id="rId6" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onions-minced"/>
-    <hyperlink ref="H81" r:id="rId7" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-ground#ProductRecipes"/>
-    <hyperlink ref="H94" r:id="rId8" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/parsley-flakes#ProductRecipes"/>
-    <hyperlink ref="G122" r:id="rId9" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/white-pepper-ground"/>
+    <hyperlink ref="G3" r:id="rId4" display="https://vitamin.foobar.in/static/image/whole_allspice.webp"/>
+    <hyperlink ref="H3" r:id="rId5" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-whole#ProductRecipes"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://vitamin.foobar.in/static/image/alum"/>
+    <hyperlink ref="G5" r:id="rId7" display="https://vitamin.foobar.in/static/image/apple_pie.webp"/>
+    <hyperlink ref="G6" r:id="rId8" display="https://vitamin.foobar.in/static/image/basil_leaves.webp"/>
+    <hyperlink ref="G7" r:id="rId9" display="https://vitamin.foobar.in/static/image/basil_leaves.webp"/>
+    <hyperlink ref="G8" r:id="rId10" display="https://vitamin.foobar.in/static/image/basil_leaves.webp"/>
+    <hyperlink ref="G9" r:id="rId11" display="https://vitamin.foobar.in/static/image/basil_leaves.webp"/>
+    <hyperlink ref="G10" r:id="rId12" display="https://vitamin.foobar.in/static/image/bay_leaves.webp"/>
+    <hyperlink ref="G11" r:id="rId13" display="https://vitamin.foobar.in/static/image/bay_leaves.webp"/>
+    <hyperlink ref="G12" r:id="rId14" display="https://vitamin.foobar.in/static/image/coarse_black_pepper.webp"/>
+    <hyperlink ref="G13" r:id="rId15" display="https://vitamin.foobar.in/static/image/coarse_black_pepper.webp"/>
+    <hyperlink ref="G14" r:id="rId16" display="https://vitamin.foobar.in/static/image/pure_black_pepper.webp"/>
+    <hyperlink ref="G15" r:id="rId17" display="https://vitamin.foobar.in/static/image/pure_black_pepper.webp"/>
+    <hyperlink ref="G16" r:id="rId18" display="https://vitamin.foobar.in/static/image/pure_black_pepper.webp"/>
+    <hyperlink ref="G17" r:id="rId19" display="https://vitamin.foobar.in/static/image/pure_black_pepper.webp"/>
+    <hyperlink ref="G18" r:id="rId20" display="https://vitamin.foobar.in/static/image/pure_black_pepper.webp"/>
+    <hyperlink ref="G19" r:id="rId21" display="https://vitamin.foobar.in/static/image/whole_black_pepper.png"/>
+    <hyperlink ref="G20" r:id="rId22" display="https://vitamin.foobar.in/static/image/whole_black_pepper.png"/>
+    <hyperlink ref="G21" r:id="rId23" display="https://vitamin.foobar.in/static/image/whole_black_pepper.png"/>
+    <hyperlink ref="G22" r:id="rId24" display="https://vitamin.foobar.in/static/image/caraway.png"/>
+    <hyperlink ref="G23" r:id="rId25" display="https://vitamin.foobar.in/static/image/celery_flakes.webp"/>
+    <hyperlink ref="G24" r:id="rId26" display="https://vitamin.foobar.in/static/image/celery_salt.webp"/>
+    <hyperlink ref="G25" r:id="rId27" display="https://vitamin.foobar.in/static/image/celery_seed.webp"/>
+    <hyperlink ref="G26" r:id="rId28" display="https://vitamin.foobar.in/static/image/chili_powder.webp"/>
+    <hyperlink ref="G27" r:id="rId29" display="https://vitamin.foobar.in/static/image/chili_powder.webp"/>
+    <hyperlink ref="G28" r:id="rId30" display="https://vitamin.foobar.in/static/image/chipotle.webp"/>
+    <hyperlink ref="G29" r:id="rId31" display="https://vitamin.foobar.in/static/image/chipotle.webp"/>
+    <hyperlink ref="G30" r:id="rId32" display="https://vitamin.foobar.in/static/image/chives.webp"/>
+    <hyperlink ref="G31" r:id="rId33" display="https://vitamin.foobar.in/static/image/cilantro-leaves.webp"/>
+    <hyperlink ref="G32" r:id="rId34" display="https://vitamin.foobar.in/static/image/ground_cinnamon.png"/>
+    <hyperlink ref="G33" r:id="rId35" display="https://vitamin.foobar.in/static/image/ground_cinnamon.png"/>
+    <hyperlink ref="G34" r:id="rId36" display="https://vitamin.foobar.in/static/image/ground_cinnamon.png"/>
+    <hyperlink ref="G35" r:id="rId37" display="https://vitamin.foobar.in/static/image/ground_cinnamon.png"/>
+    <hyperlink ref="G36" r:id="rId38" display="https://vitamin.foobar.in/static/image/ground_cinnamon.png"/>
+    <hyperlink ref="G37" r:id="rId39" display="https://vitamin.foobar.in/static/image/cinnamon_sticks.png"/>
+    <hyperlink ref="G38" r:id="rId40" display="https://vitamin.foobar.in/static/image/cinnamon_sugar.png"/>
+    <hyperlink ref="G39" r:id="rId41" display="https://vitamin.foobar.in/static/image/cinnamon_sugar.png"/>
+    <hyperlink ref="G40" r:id="rId42" display="https://vitamin.foobar.in/static/image/ground_cloves.png"/>
+    <hyperlink ref="G41" r:id="rId43" display="https://vitamin.foobar.in/static/image/whole_cloves.png"/>
+    <hyperlink ref="G42" r:id="rId44" display="https://vitamin.foobar.in/static/image/cream_of_tarter.png"/>
+    <hyperlink ref="G43" r:id="rId45" display="https://vitamin.foobar.in/static/image/ground_cumin.png"/>
+    <hyperlink ref="G44" r:id="rId46" display="https://vitamin.foobar.in/static/image/ground_cumin.png"/>
+    <hyperlink ref="G45" r:id="rId47" display="https://vitamin.foobar.in/static/image/ground_cumin.png"/>
+    <hyperlink ref="G46" r:id="rId48" display="https://vitamin.foobar.in/static/image/ground_cumin.png"/>
+    <hyperlink ref="G47" r:id="rId49" display="https://vitamin.foobar.in/static/image/cumin_seed.png"/>
+    <hyperlink ref="G48" r:id="rId50" display="https://vitamin.foobar.in/static/image/curry_powder.png"/>
+    <hyperlink ref="G49" r:id="rId51" display="https://vitamin.foobar.in/static/image/curry_powder.png"/>
+    <hyperlink ref="G50" r:id="rId52" display="https://vitamin.foobar.in/static/image/dill_seed.png"/>
+    <hyperlink ref="G51" r:id="rId53" display="https://vitamin.foobar.in/static/image/dill_weed.webp"/>
+    <hyperlink ref="G52" r:id="rId54" display="https://vitamin.foobar.in/static/image/fennel_seed.png"/>
+    <hyperlink ref="G53" r:id="rId55" display="https://vitamin.foobar.in/static/image/minced_garlic.png"/>
+    <hyperlink ref="G54" r:id="rId56" display="https://vitamin.foobar.in/static/image/garlic_powder.png"/>
+    <hyperlink ref="G55" r:id="rId57" display="https://vitamin.foobar.in/static/image/garlic_powder.png"/>
+    <hyperlink ref="G56" r:id="rId58" display="https://vitamin.foobar.in/static/image/garlic_powder.png"/>
+    <hyperlink ref="G57" r:id="rId59" display="https://vitamin.foobar.in/static/image/garlic_salt.png"/>
+    <hyperlink ref="G58" r:id="rId60" display="https://vitamin.foobar.in/static/image/garlic_salt.png"/>
+    <hyperlink ref="G59" r:id="rId61" display="https://vitamin.foobar.in/static/image/garlic_salt.png"/>
+    <hyperlink ref="G60" r:id="rId62" display="https://vitamin.foobar.in/static/image/garlic_salt.png"/>
+    <hyperlink ref="G61" r:id="rId63" display="https://vitamin.foobar.in/static/image/ground_ginger.png"/>
+    <hyperlink ref="G62" r:id="rId64" display="https://vitamin.foobar.in/static/image/ground_ginger.png"/>
+    <hyperlink ref="G63" r:id="rId65" display="https://vitamin.foobar.in/static/image/ground_mace.png"/>
+    <hyperlink ref="G64" r:id="rId66" display="https://vitamin.foobar.in/static/image/marjoram_leaves.png"/>
+    <hyperlink ref="G65" r:id="rId67" display="https://vitamin.foobar.in/static/image/pickling_spice.png"/>
+    <hyperlink ref="G66" r:id="rId68" display="https://vitamin.foobar.in/static/image/ground_mustard.png"/>
+    <hyperlink ref="G67" r:id="rId69" display="https://vitamin.foobar.in/static/image/ground_mustard.png"/>
+    <hyperlink ref="G68" r:id="rId70" display="https://vitamin.foobar.in/static/image/yellow_mustard_seed.png"/>
+    <hyperlink ref="G69" r:id="rId71" display="https://vitamin.foobar.in/static/image/ground_nutmeg.png "/>
+    <hyperlink ref="G70" r:id="rId72" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
+    <hyperlink ref="G71" r:id="rId73" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
+    <hyperlink ref="G72" r:id="rId74" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
+    <hyperlink ref="G73" r:id="rId75" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
+    <hyperlink ref="G74" r:id="rId76" display="https://vitamin.foobar.in/static/image/onion_salt.png "/>
+    <hyperlink ref="G75" r:id="rId77" display="https://vitamin.foobar.in/static/image/chopped_onions.png "/>
+    <hyperlink ref="G76" r:id="rId78" display="https://vitamin.foobar.in/static/image/chopped_onions.png "/>
+    <hyperlink ref="G77" r:id="rId79" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
+    <hyperlink ref="G78" r:id="rId80" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
+    <hyperlink ref="G79" r:id="rId81" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
+    <hyperlink ref="G80" r:id="rId82" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
+    <hyperlink ref="G81" r:id="rId83" display="https://vitamin.foobar.in/static/image/ground_oregano.png "/>
+    <hyperlink ref="H81" r:id="rId84" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-ground#ProductRecipes"/>
+    <hyperlink ref="G82" r:id="rId85" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
+    <hyperlink ref="G83" r:id="rId86" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
+    <hyperlink ref="G84" r:id="rId87" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
+    <hyperlink ref="G85" r:id="rId88" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
+    <hyperlink ref="G86" r:id="rId89" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
+    <hyperlink ref="G87" r:id="rId90" display="https://vitamin.foobar.in/static/image/organic_black_pepper.png"/>
+    <hyperlink ref="G88" r:id="rId91" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
+    <hyperlink ref="G89" r:id="rId92" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
+    <hyperlink ref="G90" r:id="rId93" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
+    <hyperlink ref="G91" r:id="rId94" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
+    <hyperlink ref="G92" r:id="rId95" display="https://vitamin.foobar.in/static/image/smoked_paprika.png"/>
+    <hyperlink ref="G93" r:id="rId96" display="https://vitamin.foobar.in/static/image/smoked_paprika.png"/>
+    <hyperlink ref="G94" r:id="rId97" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
+    <hyperlink ref="H94" r:id="rId98" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/parsley-flakes#ProductRecipes"/>
+    <hyperlink ref="G95" r:id="rId99" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
+    <hyperlink ref="G96" r:id="rId100" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
+    <hyperlink ref="G97" r:id="rId101" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
+    <hyperlink ref="G98" r:id="rId102" display="https://vitamin.foobar.in/static/image/poppy_seed.png "/>
+    <hyperlink ref="G99" r:id="rId103" display="https://vitamin.foobar.in/static/image/poppy_seed.png "/>
+    <hyperlink ref="G100" r:id="rId104" display="https://vitamin.foobar.in/static/image/poultry_seasoning.png "/>
+    <hyperlink ref="G101" r:id="rId105" display="https://vitamin.foobar.in/static/image/pumpkin_pie_spice.png "/>
+    <hyperlink ref="G102" r:id="rId106" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
+    <hyperlink ref="G103" r:id="rId107" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
+    <hyperlink ref="G104" r:id="rId108" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
+    <hyperlink ref="G105" r:id="rId109" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
+    <hyperlink ref="G106" r:id="rId110" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
+    <hyperlink ref="G107" r:id="rId111" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
+    <hyperlink ref="G108" r:id="rId112" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
+    <hyperlink ref="G109" r:id="rId113" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
+    <hyperlink ref="G110" r:id="rId114" display="https://vitamin.foobar.in/static/image/rosemary_leaves.webp "/>
+    <hyperlink ref="G111" r:id="rId115" display="https://vitamin.foobar.in/static/image/ground_sage.png "/>
+    <hyperlink ref="G112" r:id="rId116" display="https://vitamin.foobar.in/static/image/rubbed_sage.png "/>
+    <hyperlink ref="G113" r:id="rId117" display="https://vitamin.foobar.in/static/image/sesame_seeds.png "/>
+    <hyperlink ref="G114" r:id="rId118" display="https://vitamin.foobar.in/static/image/sesame_seeds.png "/>
+    <hyperlink ref="G115" r:id="rId119" display="https://vitamin.foobar.in/static/image/tarragon_leaves.png "/>
+    <hyperlink ref="G116" r:id="rId120" display="https://vitamin.foobar.in/static/image/ground_thyme.png "/>
+    <hyperlink ref="G117" r:id="rId121" display="https://vitamin.foobar.in/static/image/thyme_leaves.webp "/>
+    <hyperlink ref="G118" r:id="rId122" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
+    <hyperlink ref="G119" r:id="rId123" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
+    <hyperlink ref="G120" r:id="rId124" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
+    <hyperlink ref="G121" r:id="rId125" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
+    <hyperlink ref="G122" r:id="rId126" display="https://vitamin.foobar.in/static/image/white_pepper.webp"/>
+    <hyperlink ref="G123" r:id="rId127" display="https://vitamin.foobar.in/static/image/white_pepper.webp "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4234,6 +4638,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId10"/>
+  <legacyDrawing r:id="rId128"/>
 </worksheet>
 </file>
--- a/VITAMIN_DEMO/app/data/Spices.xlsx
+++ b/VITAMIN_DEMO/app/data/Spices.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="227">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Whole Allspice</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_allspice.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_allspice.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-whole#ProductRecipes</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">Potassium Aluminum Sulfate</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/alum.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/alum.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">Apple Pie Spice</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Cinnamon, Nutmeg and Allspice</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/apple_pie.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/apple_pie.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/apple-pie-spice#ProductRecipes</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">52100006963 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/basil_leaves.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/basil_leaves.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/basil-leaves#ProductRecipes</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">Bay Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/bay_leaves.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/bay_leaves.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/bay-leaves#ProductRecipes</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">52100030043 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/coarse_black_pepper.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/coarse_black_pepper.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-pepper-coarse-ground#ProductRecipes</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">Pure Ground Black Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pure_black_pepper.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pure_black_pepper.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-pepper-ground#ProductRecipes</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">Black Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_black_pepper.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_black_pepper.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/black-peppercorns-whole#ProductRecipes</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">Caraway Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/caraway.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/caraway.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/caraway-seed#ProductRecipes</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">Celery and Suffixing Agent</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_flakes.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_flakes.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">Celery Salt</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">Salt &amp; Celery Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_salt.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_salt.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/celery-salt#ProductRecipes</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">Celery Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_seed.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/celery_seed.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/celery-seed#ProductRecipes</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">Chili Pepper, Spices, Salt, Silicon DIoxide (to Make Free Flowing) and Garlic</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chili_powder.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chili_powder.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chili-powder#ProductRecipes</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">Chili Pepper and Silicon Dioxide (Added to Make Free Flowing).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chipotle.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chipotle.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chipotle-chili-pepper#ProductRecipes</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">Freeze-Dried Chives</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chives.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chives.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/chives#ProductRecipes</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">Cilantro Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cilantro-leaves.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cilantro-leaves.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cilantro-leaves#ProductRecipes</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">Ground Cinnamon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cinnamon.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cinnamon.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-ground#ProductRecipes</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">Cinnamon Stick</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cinnamon_sticks.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cinnamon_sticks.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-sticks#ProductRecipes</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">Sugar, Cinnamon, and Extractives of Cinnamon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cinnamon_sugar.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cinnamon_sugar.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cinnamon-sugar#ProductRecipes</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Ground Cloves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cloves.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cloves.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cloves-ground#ProductRecipes</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">52100002347 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_cloves.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/whole_cloves.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cloves-whole#ProductRecipes</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">Cream of Tartar</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cream_of_tarter.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cream_of_tarter.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cream-of-tartar#ProductRecipes</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">Ground Cumin</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cumin.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cumin.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cumin-ground#ProductRecipes</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">Cumin Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cumin_seed.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/cumin_seed.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/cumin-seed#ProductRecipes</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">Coriander, Fenugreek, Turmeric, Cumin, Black Pepper, Bay Leaves, Celery Seed, Nutmeg, Clove, Onion, Ginger, and Red Pepper.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/curry_powder.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/curry_powder.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/curry-powder#ProductRecipes</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">Dill Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/dill_seed.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/dill_seed.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/dill-seed#ProductRecipes</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">Dill Weed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/dill_weed.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/dill_weed.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/dill-weed#ProductRecipes</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">Fennel Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/fennel_seed.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/fennel_seed.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/fennel-seed#ProductRecipes</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">Minced Garlic</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/minced_garlic.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/minced_garlic.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-minced#ProductRecipes</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">Garlic Powder</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/garlic_powder.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/garlic_powder.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-powder#ProductRecipes</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">Salt, Garlic, Calcium Silicate (to Make Free Flowing), and Garlic Oil.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/garlic_salt.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/garlic_salt.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/garlic-salt#ProductRecipes</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">Ginger and Sulfiting Agent (Added to Preserve Color)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_ginger.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_ginger.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/ginger-ground#ProductRecipes</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">Ground Mace</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_mace.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_mace.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mace-ground#ProductRecipes</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">Marjoram Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/marjoram_leaves.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/marjoram_leaves.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/marjoram-leaves#ProductRecipes</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">Cinnamon, Allspice, Mustard Seed, Coriander, Bay Leaves, Ginger, Clove, Red Pepper, Black Pepper, Cardamom, Mace, and Sulfiting Agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pickling_spice.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pickling_spice.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mixed-pickling-spice#ProductRecipes</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">Ground Mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_mustard.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_mustard.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mustard-ground#ProductRecipes</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">Yellow Mustard Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/yellow_mustard_seed.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/yellow_mustard_seed.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/mustard-seed#ProductRecipes</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">Ground Nutmeg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_nutmeg.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_nutmeg.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/nutmeg-ground#ProductRecipes</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">Onion Powder</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/onion_powder.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/onion_powder.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onion-powder#ProductRecipes</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">Salt, Onion, Sodium Silicoaluminate (to Make Free Flowing) &amp; Extractives of Onion</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/onion_salt.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/onion_salt.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onion-salt#ProductRecipes</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">Chopped Onions</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chopped_onions.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/chopped_onions.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onions-chopped#ProductRecipes</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">Mined Onions</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/minced_onions.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/minced_onions.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/onions-minced#ProductRecipes</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">52100003566 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_oregano.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_oregano.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-ground#ProductRecipes</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">Oregano Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/oregano_leaves.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/oregano_leaves.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-leaves#ProductRecipes</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">Ground Organic Black Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/organic_black_pepper.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/organic_black_pepper.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/organic-ground-black-pepper#ProductRecipes</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">Paprika and Silicon Dioxide (to Make Free Flowing)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/paprika.webp </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/paprika.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/paprika#ProductRecipes</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">Smoked Paprika</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/smoked_paprika.png</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/smoked_paprika.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/paprika-smoked#ProductRecipes</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">Parsley Flakes</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/parsley_flakes.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/parsley_flakes.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/parsley-flakes#ProductRecipes</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">Poppy Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/poppy_seed.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/poppy_seed.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/poppy-seed#ProductRecipes</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">THYME, SAGE, MARJORAM, ROSEMARY, BLACK PEPPER, AND NUTMEG</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/poultry_seasoning.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/poultry_seasoning.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/poultry-seasoning#ProductRecipes</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">Cinnamon, Ginger, Nutmeg, Allspice and Sulfiting Agents</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pumpkin_pie_spice.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/pumpkin_pie_spice.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/pumpkin-pie-spice#ProductRecipes</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">Red Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/crushed_red_pepper.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/crushed_red_pepper.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/red-pepper-crushed#ProductRecipes</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">Ground Cayenne Red Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/red-pepper-ground#ProductRecipes</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">Rosemary Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/rosemary_leaves.webp </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/rosemary_leaves.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/rosemary-leaves#ProductRecipes</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">Sage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_sage.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_sage.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sage-ground#ProductRecipes</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">Rubbed Sage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/rubbed_sage.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/rubbed_sage.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sage-rubbed#ProductRecipes</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">Sesame Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/sesame_seeds.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/sesame_seeds.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/sesame-seed#ProductRecipes</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">Tarragon Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/tarragon_leaves.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/tarragon_leaves.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/tarragon-leaves#ProductRecipes</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">Ground Thyme</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_thyme.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_thyme.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/thyme-ground#ProductRecipes</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">Thyme Leaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/thyme_leaves.webp </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/thyme_leaves.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/thyme-leaves</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">Ground Tumeric</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_turmeric.png </t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/ground_turmeric.png/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/ground-turmeric-powder#ProductRecipes</t>
@@ -758,13 +758,10 @@
     <t xml:space="preserve">Ground White Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/white_pepper.webp</t>
+    <t xml:space="preserve">https://vitamin.foobar.in/static/image/white_pepper.webp/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/white-pepper-ground#ProductRecipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vitamin.foobar.in/static/image/white_pepper.webp </t>
   </si>
 </sst>
 </file>
@@ -814,6 +811,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
@@ -834,13 +838,6 @@
       <name val="Trade Gothic Light"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -884,11 +881,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -933,15 +930,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -949,19 +954,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,19 +1048,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G131" activeCellId="0" sqref="G131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.08"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="2" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="38.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="84.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="104"/>
@@ -1112,7 +1117,7 @@
       <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1126,7 +1131,7 @@
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>52100002132</v>
       </c>
       <c r="E3" s="2" t="n">
@@ -1135,10 +1140,10 @@
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1152,7 +1157,7 @@
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>52100002149</v>
       </c>
       <c r="E4" s="2" t="n">
@@ -1161,7 +1166,7 @@
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1175,7 +1180,7 @@
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="12" t="n">
         <v>52100002620</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -1184,7 +1189,7 @@
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -1201,7 +1206,7 @@
       <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="n">
@@ -1210,7 +1215,7 @@
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -1227,7 +1232,7 @@
       <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>52100029283</v>
       </c>
       <c r="E7" s="2" t="n">
@@ -1236,7 +1241,7 @@
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -1253,7 +1258,7 @@
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="12" t="n">
         <v>52100071121</v>
       </c>
       <c r="E8" s="2" t="n">
@@ -1262,7 +1267,7 @@
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -1279,7 +1284,7 @@
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="12" t="n">
         <v>52100302003</v>
       </c>
       <c r="E9" s="2" t="n">
@@ -1288,7 +1293,7 @@
       <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -1305,7 +1310,7 @@
       <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="12" t="n">
         <v>52100006987</v>
       </c>
       <c r="E10" s="2" t="n">
@@ -1314,7 +1319,7 @@
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -1331,7 +1336,7 @@
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="12" t="n">
         <v>52100302164</v>
       </c>
       <c r="E11" s="2" t="n">
@@ -1340,7 +1345,7 @@
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -1357,7 +1362,7 @@
       <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2" t="n">
@@ -1366,7 +1371,7 @@
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -1383,7 +1388,7 @@
       <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="12" t="n">
         <v>52100030258</v>
       </c>
       <c r="E13" s="2" t="n">
@@ -1392,7 +1397,7 @@
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1409,7 +1414,7 @@
       <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="12" t="n">
         <v>52100029924</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -1418,7 +1423,7 @@
       <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -1435,7 +1440,7 @@
       <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="12" t="n">
         <v>52100029962</v>
       </c>
       <c r="E15" s="2" t="n">
@@ -1444,7 +1449,7 @@
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
@@ -1461,7 +1466,7 @@
       <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="12" t="n">
         <v>52100030104</v>
       </c>
       <c r="E16" s="2" t="n">
@@ -1470,7 +1475,7 @@
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="0" t="s">
@@ -1487,7 +1492,7 @@
       <c r="C17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="12" t="n">
         <v>52100052311</v>
       </c>
       <c r="E17" s="2" t="n">
@@ -1496,7 +1501,7 @@
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="0" t="s">
@@ -1513,7 +1518,7 @@
       <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="12" t="n">
         <v>52100030340</v>
       </c>
       <c r="E18" s="2" t="n">
@@ -1522,7 +1527,7 @@
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="0" t="s">
@@ -1539,7 +1544,7 @@
       <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="12" t="n">
         <v>52100030234</v>
       </c>
       <c r="E19" s="2" t="n">
@@ -1548,7 +1553,7 @@
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="0" t="s">
@@ -1565,7 +1570,7 @@
       <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="12" t="n">
         <v>52100030388</v>
       </c>
       <c r="E20" s="2" t="n">
@@ -1574,7 +1579,7 @@
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="0" t="s">
@@ -1591,7 +1596,7 @@
       <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="12" t="n">
         <v>52100030081</v>
       </c>
       <c r="E21" s="2" t="n">
@@ -1600,7 +1605,7 @@
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -1617,7 +1622,7 @@
       <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="12" t="n">
         <v>52100002170</v>
       </c>
       <c r="E22" s="2" t="n">
@@ -1626,7 +1631,7 @@
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H22" s="0" t="s">
@@ -1643,7 +1648,7 @@
       <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="12" t="n">
         <v>52100007069</v>
       </c>
       <c r="E23" s="2" t="n">
@@ -1652,7 +1657,7 @@
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1666,7 +1671,7 @@
       <c r="C24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="12" t="n">
         <v>52100005089</v>
       </c>
       <c r="E24" s="2" t="n">
@@ -1675,7 +1680,7 @@
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="0" t="s">
@@ -1692,7 +1697,7 @@
       <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="12" t="n">
         <v>52100002187</v>
       </c>
       <c r="E25" s="2" t="n">
@@ -1701,7 +1706,7 @@
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="0" t="s">
@@ -1718,7 +1723,7 @@
       <c r="C26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="12" t="n">
         <v>52100004280</v>
       </c>
       <c r="E26" s="2" t="n">
@@ -1727,7 +1732,7 @@
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H26" s="0" t="s">
@@ -1744,7 +1749,7 @@
       <c r="C27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="12" t="n">
         <v>52100071084</v>
       </c>
       <c r="E27" s="2" t="n">
@@ -1753,7 +1758,7 @@
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -1770,7 +1775,7 @@
       <c r="C28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="12" t="n">
         <v>52100006383</v>
       </c>
       <c r="E28" s="2" t="n">
@@ -1779,7 +1784,7 @@
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -1796,7 +1801,7 @@
       <c r="C29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="12" t="n">
         <v>52100028125</v>
       </c>
       <c r="E29" s="2" t="n">
@@ -1805,7 +1810,7 @@
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -1822,7 +1827,7 @@
       <c r="C30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="12" t="n">
         <v>52100007076</v>
       </c>
       <c r="E30" s="2" t="n">
@@ -1831,7 +1836,7 @@
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -1848,7 +1853,7 @@
       <c r="C31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="12" t="n">
         <v>52100008387</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1857,7 +1862,7 @@
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="13" t="s">
         <v>68</v>
       </c>
       <c r="H31" s="0" t="s">
@@ -1874,7 +1879,7 @@
       <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="12" t="n">
         <v>52100004389</v>
       </c>
       <c r="E32" s="2" t="n">
@@ -1883,7 +1888,7 @@
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -1900,7 +1905,7 @@
       <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="12" t="n">
         <v>52100015828</v>
       </c>
       <c r="E33" s="2" t="n">
@@ -1909,7 +1914,7 @@
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="0" t="s">
@@ -1926,7 +1931,7 @@
       <c r="C34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="12" t="n">
         <v>52100035994</v>
       </c>
       <c r="E34" s="2" t="n">
@@ -1935,7 +1940,7 @@
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="0" t="s">
@@ -1952,7 +1957,7 @@
       <c r="C35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="12" t="n">
         <v>52100071091</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1961,7 +1966,7 @@
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H35" s="0" t="s">
@@ -1978,7 +1983,7 @@
       <c r="C36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="12" t="n">
         <v>52100304441</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -1987,7 +1992,7 @@
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="0" t="s">
@@ -2004,7 +2009,7 @@
       <c r="C37" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="12" t="n">
         <v>52100004426</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2013,7 +2018,7 @@
       <c r="F37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="13" t="s">
         <v>75</v>
       </c>
       <c r="H37" s="0" t="s">
@@ -2030,7 +2035,7 @@
       <c r="C38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D38" s="12" t="n">
         <v>52100004440</v>
       </c>
       <c r="E38" s="2" t="n">
@@ -2039,7 +2044,7 @@
       <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H38" s="0" t="s">
@@ -2056,7 +2061,7 @@
       <c r="C39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="12" t="n">
         <v>52100015828</v>
       </c>
       <c r="E39" s="2" t="n">
@@ -2065,7 +2070,7 @@
       <c r="F39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H39" s="0" t="s">
@@ -2082,7 +2087,7 @@
       <c r="C40" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D40" s="12" t="n">
         <v>52100002330</v>
       </c>
       <c r="E40" s="2" t="n">
@@ -2091,7 +2096,7 @@
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H40" s="0" t="s">
@@ -2108,7 +2113,7 @@
       <c r="C41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E41" s="2" t="n">
@@ -2117,7 +2122,7 @@
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H41" s="0" t="s">
@@ -2134,7 +2139,7 @@
       <c r="C42" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D42" s="12" t="n">
         <v>52100002361</v>
       </c>
       <c r="E42" s="2" t="n">
@@ -2143,7 +2148,7 @@
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="13" t="s">
         <v>89</v>
       </c>
       <c r="H42" s="0" t="s">
@@ -2160,7 +2165,7 @@
       <c r="C43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="11" t="n">
+      <c r="D43" s="12" t="n">
         <v>52100006512</v>
       </c>
       <c r="E43" s="2" t="n">
@@ -2169,7 +2174,7 @@
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H43" s="0" t="s">
@@ -2186,7 +2191,7 @@
       <c r="C44" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D44" s="12" t="n">
         <v>52100010236</v>
       </c>
       <c r="E44" s="2" t="n">
@@ -2195,7 +2200,7 @@
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H44" s="0" t="s">
@@ -2212,7 +2217,7 @@
       <c r="C45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="12" t="n">
         <v>52100038070</v>
       </c>
       <c r="E45" s="2" t="n">
@@ -2221,7 +2226,7 @@
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H45" s="0" t="s">
@@ -2238,7 +2243,7 @@
       <c r="C46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D46" s="12" t="n">
         <v>52100324135</v>
       </c>
       <c r="E46" s="2" t="n">
@@ -2247,7 +2252,7 @@
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H46" s="0" t="s">
@@ -2264,7 +2269,7 @@
       <c r="C47" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="11" t="n">
+      <c r="D47" s="12" t="n">
         <v>52100002415</v>
       </c>
       <c r="E47" s="2" t="n">
@@ -2273,7 +2278,7 @@
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="13" t="s">
         <v>95</v>
       </c>
       <c r="H47" s="0" t="s">
@@ -2290,7 +2295,7 @@
       <c r="C48" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D48" s="12" t="n">
         <v>52100039565</v>
       </c>
       <c r="E48" s="2" t="n">
@@ -2299,7 +2304,7 @@
       <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="13" t="s">
         <v>99</v>
       </c>
       <c r="H48" s="0" t="s">
@@ -2316,7 +2321,7 @@
       <c r="C49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="11" t="n">
+      <c r="D49" s="12" t="n">
         <v>52100324142</v>
       </c>
       <c r="E49" s="2" t="n">
@@ -2325,7 +2330,7 @@
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="13" t="s">
         <v>99</v>
       </c>
       <c r="H49" s="0" t="s">
@@ -2342,7 +2347,7 @@
       <c r="C50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D50" s="12" t="n">
         <v>52100002484</v>
       </c>
       <c r="E50" s="2" t="n">
@@ -2351,7 +2356,7 @@
       <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="13" t="s">
         <v>102</v>
       </c>
       <c r="H50" s="0" t="s">
@@ -2368,7 +2373,7 @@
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="12" t="n">
         <v>52100003269</v>
       </c>
       <c r="E51" s="2" t="n">
@@ -2377,7 +2382,7 @@
       <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="13" t="s">
         <v>105</v>
       </c>
       <c r="H51" s="0" t="s">
@@ -2394,7 +2399,7 @@
       <c r="C52" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D52" s="12" t="n">
         <v>52100002491</v>
       </c>
       <c r="E52" s="2" t="n">
@@ -2403,7 +2408,7 @@
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H52" s="0" t="s">
@@ -2420,7 +2425,7 @@
       <c r="C53" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="11" t="n">
+      <c r="D53" s="12" t="n">
         <v>52100005966</v>
       </c>
       <c r="E53" s="2" t="n">
@@ -2429,7 +2434,7 @@
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="13" t="s">
         <v>111</v>
       </c>
       <c r="H53" s="0" t="s">
@@ -2446,7 +2451,7 @@
       <c r="C54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D54" s="12" t="n">
         <v>52100006260</v>
       </c>
       <c r="E54" s="2" t="n">
@@ -2455,7 +2460,7 @@
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="13" t="s">
         <v>115</v>
       </c>
       <c r="H54" s="0" t="s">
@@ -2472,7 +2477,7 @@
       <c r="C55" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="11" t="n">
+      <c r="D55" s="12" t="n">
         <v>52100071183</v>
       </c>
       <c r="E55" s="2" t="n">
@@ -2481,7 +2486,7 @@
       <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="13" t="s">
         <v>115</v>
       </c>
       <c r="H55" s="0" t="s">
@@ -2498,7 +2503,7 @@
       <c r="C56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D56" s="12" t="n">
         <v>52100106489</v>
       </c>
       <c r="E56" s="2" t="n">
@@ -2507,7 +2512,7 @@
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="13" t="s">
         <v>115</v>
       </c>
       <c r="H56" s="0" t="s">
@@ -2524,7 +2529,7 @@
       <c r="C57" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="11" t="n">
+      <c r="D57" s="12" t="n">
         <v>52100005935</v>
       </c>
       <c r="E57" s="2" t="n">
@@ -2533,7 +2538,7 @@
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H57" s="0" t="s">
@@ -2550,7 +2555,7 @@
       <c r="C58" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="11" t="n">
+      <c r="D58" s="12" t="n">
         <v>52100038346</v>
       </c>
       <c r="E58" s="2" t="n">
@@ -2559,7 +2564,7 @@
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H58" s="0" t="s">
@@ -2576,7 +2581,7 @@
       <c r="C59" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="11" t="n">
+      <c r="D59" s="12" t="n">
         <v>52100071176</v>
       </c>
       <c r="E59" s="2" t="n">
@@ -2585,7 +2590,7 @@
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H59" s="0" t="s">
@@ -2602,7 +2607,7 @@
       <c r="C60" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="11" t="n">
+      <c r="D60" s="12" t="n">
         <v>52100103532</v>
       </c>
       <c r="E60" s="2" t="n">
@@ -2611,7 +2616,7 @@
       <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H60" s="0" t="s">
@@ -2628,7 +2633,7 @@
       <c r="C61" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="11" t="n">
+      <c r="D61" s="12" t="n">
         <v>52100037509</v>
       </c>
       <c r="E61" s="2" t="n">
@@ -2637,7 +2642,7 @@
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="13" t="s">
         <v>123</v>
       </c>
       <c r="H61" s="0" t="s">
@@ -2654,7 +2659,7 @@
       <c r="C62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="11" t="n">
+      <c r="D62" s="12" t="n">
         <v>52100039480</v>
       </c>
       <c r="E62" s="2" t="n">
@@ -2663,7 +2668,7 @@
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="13" t="s">
         <v>123</v>
       </c>
       <c r="H62" s="0" t="s">
@@ -2680,7 +2685,7 @@
       <c r="C63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="11" t="n">
+      <c r="D63" s="12" t="n">
         <v>52100002521</v>
       </c>
       <c r="E63" s="2" t="n">
@@ -2689,7 +2694,7 @@
       <c r="F63" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H63" s="0" t="s">
@@ -2706,7 +2711,7 @@
       <c r="C64" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="11" t="n">
+      <c r="D64" s="12" t="n">
         <v>52100003467</v>
       </c>
       <c r="E64" s="2" t="n">
@@ -2715,7 +2720,7 @@
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="13" t="s">
         <v>129</v>
       </c>
       <c r="H64" s="0" t="s">
@@ -2732,7 +2737,7 @@
       <c r="C65" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="11" t="n">
+      <c r="D65" s="12" t="n">
         <v>52100005027</v>
       </c>
       <c r="E65" s="2" t="n">
@@ -2741,7 +2746,7 @@
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H65" s="0" t="s">
@@ -2758,7 +2763,7 @@
       <c r="C66" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="11" t="n">
+      <c r="D66" s="12" t="n">
         <v>52100002538</v>
       </c>
       <c r="E66" s="2" t="n">
@@ -2767,7 +2772,7 @@
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="13" t="s">
         <v>136</v>
       </c>
       <c r="H66" s="0" t="s">
@@ -2793,7 +2798,7 @@
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="13" t="s">
         <v>136</v>
       </c>
       <c r="H67" s="0" t="s">
@@ -2810,7 +2815,7 @@
       <c r="C68" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="13" t="n">
+      <c r="D68" s="15" t="n">
         <v>52100002545</v>
       </c>
       <c r="E68" s="2" t="n">
@@ -2819,7 +2824,7 @@
       <c r="F68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="16" t="s">
         <v>139</v>
       </c>
       <c r="H68" s="0" t="s">
@@ -2836,7 +2841,7 @@
       <c r="C69" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="13" t="n">
+      <c r="D69" s="15" t="n">
         <v>52100002569</v>
       </c>
       <c r="E69" s="2" t="n">
@@ -2845,7 +2850,7 @@
       <c r="F69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="16" t="s">
         <v>142</v>
       </c>
       <c r="H69" s="0" t="s">
@@ -2862,7 +2867,7 @@
       <c r="C70" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="13" t="n">
+      <c r="D70" s="15" t="n">
         <v>52100015156</v>
       </c>
       <c r="E70" s="2" t="n">
@@ -2871,7 +2876,7 @@
       <c r="F70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="16" t="s">
         <v>145</v>
       </c>
       <c r="H70" s="0" t="s">
@@ -2888,7 +2893,7 @@
       <c r="C71" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D71" s="13" t="n">
+      <c r="D71" s="15" t="n">
         <v>52100006475</v>
       </c>
       <c r="E71" s="2" t="n">
@@ -2897,7 +2902,7 @@
       <c r="F71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="16" t="s">
         <v>145</v>
       </c>
       <c r="H71" s="0" t="s">
@@ -2914,7 +2919,7 @@
       <c r="C72" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="13" t="n">
+      <c r="D72" s="15" t="n">
         <v>52100038063</v>
       </c>
       <c r="E72" s="2" t="n">
@@ -2923,7 +2928,7 @@
       <c r="F72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="16" t="s">
         <v>145</v>
       </c>
       <c r="H72" s="0" t="s">
@@ -2940,7 +2945,7 @@
       <c r="C73" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="13" t="n">
+      <c r="D73" s="15" t="n">
         <v>52100071220</v>
       </c>
       <c r="E73" s="2" t="n">
@@ -2949,7 +2954,7 @@
       <c r="F73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="16" t="s">
         <v>145</v>
       </c>
       <c r="H73" s="0" t="s">
@@ -2963,10 +2968,10 @@
       <c r="B74" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="13" t="n">
+      <c r="D74" s="15" t="n">
         <v>52100006567</v>
       </c>
       <c r="E74" s="2" t="n">
@@ -2975,7 +2980,7 @@
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="16" t="s">
         <v>149</v>
       </c>
       <c r="H74" s="0" t="s">
@@ -2992,7 +2997,7 @@
       <c r="C75" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="13" t="n">
+      <c r="D75" s="15" t="n">
         <v>52100017617</v>
       </c>
       <c r="E75" s="2" t="n">
@@ -3001,7 +3006,7 @@
       <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="16" t="s">
         <v>152</v>
       </c>
       <c r="H75" s="0" t="s">
@@ -3018,7 +3023,7 @@
       <c r="C76" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="13" t="n">
+      <c r="D76" s="15" t="n">
         <v>52100071190</v>
       </c>
       <c r="E76" s="2" t="n">
@@ -3027,7 +3032,7 @@
       <c r="F76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="16" t="s">
         <v>152</v>
       </c>
       <c r="H76" s="0" t="s">
@@ -3044,7 +3049,7 @@
       <c r="C77" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D77" s="13" t="n">
+      <c r="D77" s="15" t="n">
         <v>52100006468</v>
       </c>
       <c r="E77" s="2" t="n">
@@ -3053,7 +3058,7 @@
       <c r="F77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H77" s="0" t="s">
@@ -3070,7 +3075,7 @@
       <c r="C78" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="13" t="n">
+      <c r="D78" s="15" t="n">
         <v>52100038230</v>
       </c>
       <c r="E78" s="2" t="n">
@@ -3079,7 +3084,7 @@
       <c r="F78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H78" s="0" t="s">
@@ -3096,7 +3101,7 @@
       <c r="C79" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D79" s="13" t="n">
+      <c r="D79" s="15" t="n">
         <v>52100071213</v>
       </c>
       <c r="E79" s="2" t="n">
@@ -3105,7 +3110,7 @@
       <c r="F79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H79" s="0" t="s">
@@ -3122,7 +3127,7 @@
       <c r="C80" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="13" t="n">
+      <c r="D80" s="15" t="n">
         <v>52100302171</v>
       </c>
       <c r="E80" s="2" t="n">
@@ -3131,7 +3136,7 @@
       <c r="F80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H80" s="0" t="s">
@@ -3148,7 +3153,7 @@
       <c r="C81" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="15" t="s">
         <v>159</v>
       </c>
       <c r="E81" s="2" t="n">
@@ -3157,10 +3162,10 @@
       <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3174,7 +3179,7 @@
       <c r="C82" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="13" t="n">
+      <c r="D82" s="15" t="n">
         <v>5210030204</v>
       </c>
       <c r="E82" s="2" t="n">
@@ -3183,7 +3188,7 @@
       <c r="F82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H82" s="0" t="s">
@@ -3200,7 +3205,7 @@
       <c r="C83" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="13" t="n">
+      <c r="D83" s="15" t="n">
         <v>52100007168</v>
       </c>
       <c r="E83" s="2" t="n">
@@ -3209,7 +3214,7 @@
       <c r="F83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H83" s="0" t="s">
@@ -3226,7 +3231,7 @@
       <c r="C84" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="13" t="n">
+      <c r="D84" s="15" t="n">
         <v>52100038391</v>
       </c>
       <c r="E84" s="2" t="n">
@@ -3235,7 +3240,7 @@
       <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H84" s="0" t="s">
@@ -3252,7 +3257,7 @@
       <c r="C85" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="13" t="n">
+      <c r="D85" s="15" t="n">
         <v>52100071138</v>
       </c>
       <c r="E85" s="2" t="n">
@@ -3261,7 +3266,7 @@
       <c r="F85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H85" s="0" t="s">
@@ -3278,7 +3283,7 @@
       <c r="C86" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="13" t="n">
+      <c r="D86" s="15" t="n">
         <v>52100302041</v>
       </c>
       <c r="E86" s="2" t="n">
@@ -3287,7 +3292,7 @@
       <c r="F86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H86" s="0" t="s">
@@ -3304,7 +3309,7 @@
       <c r="C87" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D87" s="17" t="n">
+      <c r="D87" s="19" t="n">
         <v>52100043036</v>
       </c>
       <c r="E87" s="2" t="n">
@@ -3313,7 +3318,7 @@
       <c r="F87" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="16" t="s">
         <v>166</v>
       </c>
       <c r="H87" s="0" t="s">
@@ -3327,10 +3332,10 @@
       <c r="B88" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="17" t="n">
+      <c r="D88" s="19" t="n">
         <v>52100004488</v>
       </c>
       <c r="E88" s="2" t="n">
@@ -3339,7 +3344,7 @@
       <c r="F88" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="16" t="s">
         <v>170</v>
       </c>
       <c r="H88" s="0" t="s">
@@ -3353,10 +3358,10 @@
       <c r="B89" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="17" t="n">
+      <c r="D89" s="19" t="n">
         <v>52100015170</v>
       </c>
       <c r="E89" s="2" t="n">
@@ -3365,7 +3370,7 @@
       <c r="F89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="16" t="s">
         <v>170</v>
       </c>
       <c r="H89" s="0" t="s">
@@ -3379,10 +3384,10 @@
       <c r="B90" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="17" t="n">
+      <c r="D90" s="19" t="n">
         <v>52100038315</v>
       </c>
       <c r="E90" s="2" t="n">
@@ -3391,7 +3396,7 @@
       <c r="F90" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="16" t="s">
         <v>170</v>
       </c>
       <c r="H90" s="0" t="s">
@@ -3405,10 +3410,10 @@
       <c r="B91" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D91" s="17" t="n">
+      <c r="D91" s="19" t="n">
         <v>52100302140</v>
       </c>
       <c r="E91" s="2" t="n">
@@ -3417,7 +3422,7 @@
       <c r="F91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="16" t="s">
         <v>170</v>
       </c>
       <c r="H91" s="0" t="s">
@@ -3431,10 +3436,10 @@
       <c r="B92" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D92" s="17" t="n">
+      <c r="D92" s="19" t="n">
         <v>52100006253</v>
       </c>
       <c r="E92" s="2" t="n">
@@ -3443,7 +3448,7 @@
       <c r="F92" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="16" t="s">
         <v>173</v>
       </c>
       <c r="H92" s="0" t="s">
@@ -3457,10 +3462,10 @@
       <c r="B93" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="17" t="n">
+      <c r="D93" s="19" t="n">
         <v>52100022765</v>
       </c>
       <c r="E93" s="2" t="n">
@@ -3469,7 +3474,7 @@
       <c r="F93" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="16" t="s">
         <v>173</v>
       </c>
       <c r="H93" s="0" t="s">
@@ -3483,10 +3488,10 @@
       <c r="B94" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D94" s="17" t="n">
+      <c r="D94" s="19" t="n">
         <v>52100038247</v>
       </c>
       <c r="E94" s="2" t="n">
@@ -3495,10 +3500,10 @@
       <c r="F94" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3509,10 +3514,10 @@
       <c r="B95" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D95" s="17" t="n">
+      <c r="D95" s="19" t="n">
         <v>52100007380</v>
       </c>
       <c r="E95" s="2" t="n">
@@ -3521,7 +3526,7 @@
       <c r="F95" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="16" t="s">
         <v>176</v>
       </c>
       <c r="H95" s="0" t="s">
@@ -3535,10 +3540,10 @@
       <c r="B96" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D96" s="17" t="n">
+      <c r="D96" s="19" t="n">
         <v>52100015194</v>
       </c>
       <c r="E96" s="2" t="n">
@@ -3547,7 +3552,7 @@
       <c r="F96" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="16" t="s">
         <v>176</v>
       </c>
       <c r="H96" s="0" t="s">
@@ -3561,10 +3566,10 @@
       <c r="B97" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D97" s="17" t="n">
+      <c r="D97" s="19" t="n">
         <v>52100071145</v>
       </c>
       <c r="E97" s="2" t="n">
@@ -3573,7 +3578,7 @@
       <c r="F97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="16" t="s">
         <v>176</v>
       </c>
       <c r="H97" s="0" t="s">
@@ -3590,11 +3595,11 @@
       <c r="C98" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="17" t="n">
+      <c r="D98" s="19" t="n">
         <v>52100002583</v>
       </c>
       <c r="F98" s="7"/>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="16" t="s">
         <v>179</v>
       </c>
       <c r="H98" s="0" t="s">
@@ -3611,7 +3616,7 @@
       <c r="C99" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="17" t="n">
+      <c r="D99" s="19" t="n">
         <v>52100039541</v>
       </c>
       <c r="E99" s="2" t="n">
@@ -3620,7 +3625,7 @@
       <c r="F99" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="16" t="s">
         <v>179</v>
       </c>
       <c r="H99" s="0" t="s">
@@ -3634,10 +3639,10 @@
       <c r="B100" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D100" s="17" t="n">
+      <c r="D100" s="19" t="n">
         <v>52100002637</v>
       </c>
       <c r="E100" s="2" t="n">
@@ -3646,7 +3651,7 @@
       <c r="F100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="16" t="s">
         <v>183</v>
       </c>
       <c r="H100" s="0" t="s">
@@ -3660,10 +3665,10 @@
       <c r="B101" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D101" s="17" t="n">
+      <c r="D101" s="19" t="n">
         <v>52100039503</v>
       </c>
       <c r="E101" s="2" t="n">
@@ -3672,7 +3677,7 @@
       <c r="F101" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="16" t="s">
         <v>187</v>
       </c>
       <c r="H101" s="0" t="s">
@@ -3686,10 +3691,10 @@
       <c r="B102" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="17" t="n">
+      <c r="D102" s="19" t="n">
         <v>52100006765</v>
       </c>
       <c r="E102" s="2" t="n">
@@ -3698,7 +3703,7 @@
       <c r="F102" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="16" t="s">
         <v>191</v>
       </c>
       <c r="H102" s="0" t="s">
@@ -3712,10 +3717,10 @@
       <c r="B103" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="17" t="n">
+      <c r="D103" s="19" t="n">
         <v>52100038353</v>
       </c>
       <c r="E103" s="2" t="n">
@@ -3724,7 +3729,7 @@
       <c r="F103" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="14" t="s">
+      <c r="G103" s="16" t="s">
         <v>191</v>
       </c>
       <c r="H103" s="0" t="s">
@@ -3738,10 +3743,10 @@
       <c r="B104" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="17" t="n">
+      <c r="D104" s="19" t="n">
         <v>52100071275</v>
       </c>
       <c r="E104" s="2" t="n">
@@ -3750,7 +3755,7 @@
       <c r="F104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="16" t="s">
         <v>191</v>
       </c>
       <c r="H104" s="0" t="s">
@@ -3764,10 +3769,10 @@
       <c r="B105" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="17" t="n">
+      <c r="D105" s="19" t="n">
         <v>52100106502</v>
       </c>
       <c r="E105" s="2" t="n">
@@ -3776,7 +3781,7 @@
       <c r="F105" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="14" t="s">
+      <c r="G105" s="16" t="s">
         <v>191</v>
       </c>
       <c r="H105" s="0" t="s">
@@ -3793,7 +3798,7 @@
       <c r="C106" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D106" s="17" t="n">
+      <c r="D106" s="19" t="n">
         <v>52100002866</v>
       </c>
       <c r="E106" s="2" t="n">
@@ -3802,7 +3807,7 @@
       <c r="F106" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="G106" s="16" t="s">
         <v>194</v>
       </c>
       <c r="H106" s="0" t="s">
@@ -3819,7 +3824,7 @@
       <c r="C107" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D107" s="17" t="n">
+      <c r="D107" s="19" t="n">
         <v>52100028149</v>
       </c>
       <c r="E107" s="2" t="n">
@@ -3828,7 +3833,7 @@
       <c r="F107" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="16" t="s">
         <v>194</v>
       </c>
       <c r="H107" s="0" t="s">
@@ -3845,7 +3850,7 @@
       <c r="C108" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D108" s="17" t="n">
+      <c r="D108" s="19" t="n">
         <v>52100038261</v>
       </c>
       <c r="E108" s="2" t="n">
@@ -3854,7 +3859,7 @@
       <c r="F108" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="16" t="s">
         <v>194</v>
       </c>
       <c r="H108" s="0" t="s">
@@ -3871,7 +3876,7 @@
       <c r="C109" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D109" s="17" t="n">
+      <c r="D109" s="19" t="n">
         <v>52100302362</v>
       </c>
       <c r="E109" s="2" t="n">
@@ -3880,7 +3885,7 @@
       <c r="F109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="16" t="s">
         <v>194</v>
       </c>
       <c r="H109" s="0" t="s">
@@ -3897,7 +3902,7 @@
       <c r="C110" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D110" s="17" t="n">
+      <c r="D110" s="19" t="n">
         <v>5210004228</v>
       </c>
       <c r="E110" s="2" t="n">
@@ -3906,7 +3911,7 @@
       <c r="F110" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="14" t="s">
+      <c r="G110" s="16" t="s">
         <v>198</v>
       </c>
       <c r="H110" s="0" t="s">
@@ -3923,7 +3928,7 @@
       <c r="C111" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D111" s="17" t="n">
+      <c r="D111" s="19" t="n">
         <v>5210004228</v>
       </c>
       <c r="E111" s="2" t="n">
@@ -3932,7 +3937,7 @@
       <c r="F111" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="14" t="s">
+      <c r="G111" s="16" t="s">
         <v>202</v>
       </c>
       <c r="H111" s="0" t="s">
@@ -3949,7 +3954,7 @@
       <c r="C112" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D112" s="17" t="n">
+      <c r="D112" s="19" t="n">
         <v>52100008844</v>
       </c>
       <c r="E112" s="2" t="n">
@@ -3958,7 +3963,7 @@
       <c r="F112" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="16" t="s">
         <v>205</v>
       </c>
       <c r="H112" s="0" t="s">
@@ -3975,7 +3980,7 @@
       <c r="C113" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D113" s="17" t="n">
+      <c r="D113" s="19" t="n">
         <v>52100002590</v>
       </c>
       <c r="E113" s="2" t="n">
@@ -3984,7 +3989,7 @@
       <c r="F113" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="16" t="s">
         <v>209</v>
       </c>
       <c r="H113" s="0" t="s">
@@ -4001,7 +4006,7 @@
       <c r="C114" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D114" s="17" t="n">
+      <c r="D114" s="19" t="n">
         <v>52100039527</v>
       </c>
       <c r="E114" s="2" t="n">
@@ -4010,7 +4015,7 @@
       <c r="F114" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="16" t="s">
         <v>209</v>
       </c>
       <c r="H114" s="0" t="s">
@@ -4027,7 +4032,7 @@
       <c r="C115" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D115" s="17" t="n">
+      <c r="D115" s="19" t="n">
         <v>52100004181</v>
       </c>
       <c r="E115" s="2" t="n">
@@ -4036,7 +4041,7 @@
       <c r="F115" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="G115" s="16" t="s">
         <v>212</v>
       </c>
       <c r="H115" s="0" t="s">
@@ -4053,7 +4058,7 @@
       <c r="C116" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D116" s="17" t="n">
+      <c r="D116" s="19" t="n">
         <v>52100004242</v>
       </c>
       <c r="E116" s="2" t="n">
@@ -4062,7 +4067,7 @@
       <c r="F116" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H116" s="0" t="s">
@@ -4079,7 +4084,7 @@
       <c r="C117" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D117" s="17" t="n">
+      <c r="D117" s="19" t="n">
         <v>5210004225</v>
       </c>
       <c r="E117" s="2" t="n">
@@ -4088,7 +4093,7 @@
       <c r="F117" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="16" t="s">
         <v>219</v>
       </c>
       <c r="H117" s="0" t="s">
@@ -4105,7 +4110,7 @@
       <c r="C118" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D118" s="17" t="n">
+      <c r="D118" s="19" t="n">
         <v>52100002613</v>
       </c>
       <c r="E118" s="2" t="n">
@@ -4114,7 +4119,7 @@
       <c r="F118" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G118" s="16" t="s">
         <v>222</v>
       </c>
       <c r="H118" s="0" t="s">
@@ -4131,7 +4136,7 @@
       <c r="C119" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D119" s="17" t="n">
+      <c r="D119" s="19" t="n">
         <v>52100011745</v>
       </c>
       <c r="E119" s="2" t="n">
@@ -4140,7 +4145,7 @@
       <c r="F119" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" s="16" t="s">
         <v>222</v>
       </c>
       <c r="H119" s="0" t="s">
@@ -4157,7 +4162,7 @@
       <c r="C120" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D120" s="17" t="n">
+      <c r="D120" s="19" t="n">
         <v>52100038360</v>
       </c>
       <c r="E120" s="2" t="n">
@@ -4166,7 +4171,7 @@
       <c r="F120" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" s="16" t="s">
         <v>222</v>
       </c>
       <c r="H120" s="0" t="s">
@@ -4183,7 +4188,7 @@
       <c r="C121" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="17" t="n">
+      <c r="D121" s="19" t="n">
         <v>52100041995</v>
       </c>
       <c r="E121" s="2" t="n">
@@ -4192,7 +4197,7 @@
       <c r="F121" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="16" t="s">
         <v>222</v>
       </c>
       <c r="H121" s="0" t="s">
@@ -4209,7 +4214,7 @@
       <c r="C122" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D122" s="17" t="n">
+      <c r="D122" s="19" t="n">
         <v>52100002699</v>
       </c>
       <c r="E122" s="2" t="n">
@@ -4218,7 +4223,7 @@
       <c r="F122" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G122" s="18" t="s">
         <v>225</v>
       </c>
       <c r="H122" s="0" t="s">
@@ -4235,7 +4240,7 @@
       <c r="C123" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D123" s="17" t="n">
+      <c r="D123" s="19" t="n">
         <v>52100324210</v>
       </c>
       <c r="E123" s="2" t="n">
@@ -4244,271 +4249,206 @@
       <c r="F123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="14" t="s">
-        <v>227</v>
+      <c r="G123" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="18"/>
+      <c r="F139" s="20"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="18"/>
+      <c r="F140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="18"/>
+      <c r="F141" s="20"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="18"/>
+      <c r="F142" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="18"/>
+      <c r="F143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="18"/>
+      <c r="F144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="18"/>
+      <c r="F145" s="20"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="18"/>
+      <c r="F146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="18"/>
+      <c r="F147" s="20"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="18"/>
+      <c r="F148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="18"/>
+      <c r="F149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="18"/>
+      <c r="F150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="18"/>
+      <c r="F151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="18"/>
+      <c r="F152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="18"/>
+      <c r="F153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="18"/>
+      <c r="F154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="18"/>
+      <c r="F155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="18"/>
+      <c r="F156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="18"/>
+      <c r="F157" s="20"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="18"/>
+      <c r="F158" s="20"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="18"/>
+      <c r="F159" s="20"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="18"/>
+      <c r="F160" s="20"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="18"/>
+      <c r="F161" s="20"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="18"/>
+      <c r="F162" s="20"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F163" s="18"/>
+      <c r="F163" s="20"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F164" s="18"/>
+      <c r="F164" s="20"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F165" s="18"/>
+      <c r="F165" s="20"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F166" s="18"/>
+      <c r="F166" s="20"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F167" s="18"/>
+      <c r="F167" s="20"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="18"/>
+      <c r="F168" s="20"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="18"/>
+      <c r="F169" s="20"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="18"/>
+      <c r="F170" s="20"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="18"/>
+      <c r="F171" s="20"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F172" s="18"/>
+      <c r="F172" s="20"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F173" s="18"/>
+      <c r="F173" s="20"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F174" s="18"/>
+      <c r="F174" s="20"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F175" s="18"/>
+      <c r="F175" s="20"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F176" s="18"/>
+      <c r="F176" s="20"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F177" s="18"/>
+      <c r="F177" s="20"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F178" s="18"/>
+      <c r="F178" s="20"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F179" s="18"/>
+      <c r="F179" s="20"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F180" s="18"/>
+      <c r="F180" s="20"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F181" s="18"/>
+      <c r="F181" s="20"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F182" s="18"/>
+      <c r="F182" s="20"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F183" s="18"/>
+      <c r="F183" s="20"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F184" s="18"/>
+      <c r="F184" s="20"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F185" s="18"/>
+      <c r="F185" s="20"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F186" s="18"/>
+      <c r="F186" s="20"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F187" s="18"/>
+      <c r="F187" s="20"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F188" s="18"/>
+      <c r="F188" s="20"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F189" s="18"/>
+      <c r="F189" s="20"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F190" s="18"/>
+      <c r="F190" s="20"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F191" s="18"/>
+      <c r="F191" s="20"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F192" s="18"/>
+      <c r="F192" s="20"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F193" s="18"/>
+      <c r="F193" s="20"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F194" s="18"/>
+      <c r="F194" s="20"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F195" s="18"/>
+      <c r="F195" s="20"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F196" s="18"/>
+      <c r="F196" s="20"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F197" s="18"/>
+      <c r="F197" s="20"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F198" s="18"/>
+      <c r="F198" s="20"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F199" s="18"/>
+      <c r="F199" s="20"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F200" s="18"/>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F200" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId2" display="https://vitamin.foobar.in/static/image/"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://vitamin.foobar.in/static/image/ground_allspice.webp/"/>
     <hyperlink ref="H2" r:id="rId3" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-ground#ProductRecipes"/>
     <hyperlink ref="G3" r:id="rId4" display="https://vitamin.foobar.in/static/image/whole_allspice.webp"/>
     <hyperlink ref="H3" r:id="rId5" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/allspice-whole#ProductRecipes"/>
-    <hyperlink ref="G4" r:id="rId6" display="https://vitamin.foobar.in/static/image/alum"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://vitamin.foobar.in/static/image/alum.webp"/>
     <hyperlink ref="G5" r:id="rId7" display="https://vitamin.foobar.in/static/image/apple_pie.webp"/>
     <hyperlink ref="G6" r:id="rId8" display="https://vitamin.foobar.in/static/image/basil_leaves.webp"/>
     <hyperlink ref="G7" r:id="rId9" display="https://vitamin.foobar.in/static/image/basil_leaves.webp"/>
@@ -4573,63 +4513,63 @@
     <hyperlink ref="G66" r:id="rId68" display="https://vitamin.foobar.in/static/image/ground_mustard.png"/>
     <hyperlink ref="G67" r:id="rId69" display="https://vitamin.foobar.in/static/image/ground_mustard.png"/>
     <hyperlink ref="G68" r:id="rId70" display="https://vitamin.foobar.in/static/image/yellow_mustard_seed.png"/>
-    <hyperlink ref="G69" r:id="rId71" display="https://vitamin.foobar.in/static/image/ground_nutmeg.png "/>
-    <hyperlink ref="G70" r:id="rId72" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
-    <hyperlink ref="G71" r:id="rId73" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
-    <hyperlink ref="G72" r:id="rId74" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
-    <hyperlink ref="G73" r:id="rId75" display="https://vitamin.foobar.in/static/image/onion_powder.png "/>
-    <hyperlink ref="G74" r:id="rId76" display="https://vitamin.foobar.in/static/image/onion_salt.png "/>
-    <hyperlink ref="G75" r:id="rId77" display="https://vitamin.foobar.in/static/image/chopped_onions.png "/>
-    <hyperlink ref="G76" r:id="rId78" display="https://vitamin.foobar.in/static/image/chopped_onions.png "/>
-    <hyperlink ref="G77" r:id="rId79" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
-    <hyperlink ref="G78" r:id="rId80" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
-    <hyperlink ref="G79" r:id="rId81" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
-    <hyperlink ref="G80" r:id="rId82" display="https://vitamin.foobar.in/static/image/minced_onions.png "/>
-    <hyperlink ref="G81" r:id="rId83" display="https://vitamin.foobar.in/static/image/ground_oregano.png "/>
+    <hyperlink ref="G69" r:id="rId71" display="https://vitamin.foobar.in/static/image/ground_nutmeg.png/"/>
+    <hyperlink ref="G70" r:id="rId72" display="https://vitamin.foobar.in/static/image/onion_powder.png/"/>
+    <hyperlink ref="G71" r:id="rId73" display="https://vitamin.foobar.in/static/image/onion_powder.png/"/>
+    <hyperlink ref="G72" r:id="rId74" display="https://vitamin.foobar.in/static/image/onion_powder.png/"/>
+    <hyperlink ref="G73" r:id="rId75" display="https://vitamin.foobar.in/static/image/onion_powder.png/"/>
+    <hyperlink ref="G74" r:id="rId76" display="https://vitamin.foobar.in/static/image/onion_salt.png/"/>
+    <hyperlink ref="G75" r:id="rId77" display="https://vitamin.foobar.in/static/image/chopped_onions.png/"/>
+    <hyperlink ref="G76" r:id="rId78" display="https://vitamin.foobar.in/static/image/chopped_onions.png/"/>
+    <hyperlink ref="G77" r:id="rId79" display="https://vitamin.foobar.in/static/image/minced_onions.png/"/>
+    <hyperlink ref="G78" r:id="rId80" display="https://vitamin.foobar.in/static/image/minced_onions.png/"/>
+    <hyperlink ref="G79" r:id="rId81" display="https://vitamin.foobar.in/static/image/minced_onions.png/"/>
+    <hyperlink ref="G80" r:id="rId82" display="https://vitamin.foobar.in/static/image/minced_onions.png/"/>
+    <hyperlink ref="G81" r:id="rId83" display="https://vitamin.foobar.in/static/image/ground_oregano.png/"/>
     <hyperlink ref="H81" r:id="rId84" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/oregano-ground#ProductRecipes"/>
-    <hyperlink ref="G82" r:id="rId85" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
-    <hyperlink ref="G83" r:id="rId86" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
-    <hyperlink ref="G84" r:id="rId87" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
-    <hyperlink ref="G85" r:id="rId88" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
-    <hyperlink ref="G86" r:id="rId89" display="https://vitamin.foobar.in/static/image/oregano_leaves.png "/>
-    <hyperlink ref="G87" r:id="rId90" display="https://vitamin.foobar.in/static/image/organic_black_pepper.png"/>
-    <hyperlink ref="G88" r:id="rId91" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
-    <hyperlink ref="G89" r:id="rId92" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
-    <hyperlink ref="G90" r:id="rId93" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
-    <hyperlink ref="G91" r:id="rId94" display="https://vitamin.foobar.in/static/image/paprika.webp "/>
-    <hyperlink ref="G92" r:id="rId95" display="https://vitamin.foobar.in/static/image/smoked_paprika.png"/>
-    <hyperlink ref="G93" r:id="rId96" display="https://vitamin.foobar.in/static/image/smoked_paprika.png"/>
-    <hyperlink ref="G94" r:id="rId97" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
+    <hyperlink ref="G82" r:id="rId85" display="https://vitamin.foobar.in/static/image/oregano_leaves.png/"/>
+    <hyperlink ref="G83" r:id="rId86" display="https://vitamin.foobar.in/static/image/oregano_leaves.png/"/>
+    <hyperlink ref="G84" r:id="rId87" display="https://vitamin.foobar.in/static/image/oregano_leaves.png/"/>
+    <hyperlink ref="G85" r:id="rId88" display="https://vitamin.foobar.in/static/image/oregano_leaves.png/"/>
+    <hyperlink ref="G86" r:id="rId89" display="https://vitamin.foobar.in/static/image/oregano_leaves.png/"/>
+    <hyperlink ref="G87" r:id="rId90" display="https://vitamin.foobar.in/static/image/organic_black_pepper.png/"/>
+    <hyperlink ref="G88" r:id="rId91" display="https://vitamin.foobar.in/static/image/paprika.webp/"/>
+    <hyperlink ref="G89" r:id="rId92" display="https://vitamin.foobar.in/static/image/paprika.webp/"/>
+    <hyperlink ref="G90" r:id="rId93" display="https://vitamin.foobar.in/static/image/paprika.webp/"/>
+    <hyperlink ref="G91" r:id="rId94" display="https://vitamin.foobar.in/static/image/paprika.webp/"/>
+    <hyperlink ref="G92" r:id="rId95" display="https://vitamin.foobar.in/static/image/smoked_paprika.png/"/>
+    <hyperlink ref="G93" r:id="rId96" display="https://vitamin.foobar.in/static/image/smoked_paprika.png/"/>
+    <hyperlink ref="G94" r:id="rId97" display="https://vitamin.foobar.in/static/image/parsley_flakes.png/"/>
     <hyperlink ref="H94" r:id="rId98" location="ProductRecipes" display="https://www.mccormick.com/spices-and-flavors/herbs-and-spices/spices/parsley-flakes#ProductRecipes"/>
-    <hyperlink ref="G95" r:id="rId99" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
-    <hyperlink ref="G96" r:id="rId100" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
-    <hyperlink ref="G97" r:id="rId101" display="https://vitamin.foobar.in/static/image/parsley_flakes.png "/>
-    <hyperlink ref="G98" r:id="rId102" display="https://vitamin.foobar.in/static/image/poppy_seed.png "/>
-    <hyperlink ref="G99" r:id="rId103" display="https://vitamin.foobar.in/static/image/poppy_seed.png "/>
-    <hyperlink ref="G100" r:id="rId104" display="https://vitamin.foobar.in/static/image/poultry_seasoning.png "/>
-    <hyperlink ref="G101" r:id="rId105" display="https://vitamin.foobar.in/static/image/pumpkin_pie_spice.png "/>
-    <hyperlink ref="G102" r:id="rId106" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
-    <hyperlink ref="G103" r:id="rId107" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
-    <hyperlink ref="G104" r:id="rId108" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
-    <hyperlink ref="G105" r:id="rId109" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png "/>
-    <hyperlink ref="G106" r:id="rId110" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
-    <hyperlink ref="G107" r:id="rId111" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
-    <hyperlink ref="G108" r:id="rId112" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
-    <hyperlink ref="G109" r:id="rId113" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp "/>
-    <hyperlink ref="G110" r:id="rId114" display="https://vitamin.foobar.in/static/image/rosemary_leaves.webp "/>
-    <hyperlink ref="G111" r:id="rId115" display="https://vitamin.foobar.in/static/image/ground_sage.png "/>
-    <hyperlink ref="G112" r:id="rId116" display="https://vitamin.foobar.in/static/image/rubbed_sage.png "/>
-    <hyperlink ref="G113" r:id="rId117" display="https://vitamin.foobar.in/static/image/sesame_seeds.png "/>
-    <hyperlink ref="G114" r:id="rId118" display="https://vitamin.foobar.in/static/image/sesame_seeds.png "/>
-    <hyperlink ref="G115" r:id="rId119" display="https://vitamin.foobar.in/static/image/tarragon_leaves.png "/>
-    <hyperlink ref="G116" r:id="rId120" display="https://vitamin.foobar.in/static/image/ground_thyme.png "/>
-    <hyperlink ref="G117" r:id="rId121" display="https://vitamin.foobar.in/static/image/thyme_leaves.webp "/>
-    <hyperlink ref="G118" r:id="rId122" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
-    <hyperlink ref="G119" r:id="rId123" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
-    <hyperlink ref="G120" r:id="rId124" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
-    <hyperlink ref="G121" r:id="rId125" display="https://vitamin.foobar.in/static/image/ground_turmeric.png "/>
-    <hyperlink ref="G122" r:id="rId126" display="https://vitamin.foobar.in/static/image/white_pepper.webp"/>
-    <hyperlink ref="G123" r:id="rId127" display="https://vitamin.foobar.in/static/image/white_pepper.webp "/>
+    <hyperlink ref="G95" r:id="rId99" display="https://vitamin.foobar.in/static/image/parsley_flakes.png/"/>
+    <hyperlink ref="G96" r:id="rId100" display="https://vitamin.foobar.in/static/image/parsley_flakes.png/"/>
+    <hyperlink ref="G97" r:id="rId101" display="https://vitamin.foobar.in/static/image/parsley_flakes.png/"/>
+    <hyperlink ref="G98" r:id="rId102" display="https://vitamin.foobar.in/static/image/poppy_seed.png/"/>
+    <hyperlink ref="G99" r:id="rId103" display="https://vitamin.foobar.in/static/image/poppy_seed.png/"/>
+    <hyperlink ref="G100" r:id="rId104" display="https://vitamin.foobar.in/static/image/poultry_seasoning.png/"/>
+    <hyperlink ref="G101" r:id="rId105" display="https://vitamin.foobar.in/static/image/pumpkin_pie_spice.png/"/>
+    <hyperlink ref="G102" r:id="rId106" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png/"/>
+    <hyperlink ref="G103" r:id="rId107" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png/"/>
+    <hyperlink ref="G104" r:id="rId108" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png/"/>
+    <hyperlink ref="G105" r:id="rId109" display="https://vitamin.foobar.in/static/image/crushed_red_pepper.png/"/>
+    <hyperlink ref="G106" r:id="rId110" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp/"/>
+    <hyperlink ref="G107" r:id="rId111" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp/"/>
+    <hyperlink ref="G108" r:id="rId112" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp/"/>
+    <hyperlink ref="G109" r:id="rId113" display="https://vitamin.foobar.in/static/image/ground_cayenne_red_pepper.webp/"/>
+    <hyperlink ref="G110" r:id="rId114" display="https://vitamin.foobar.in/static/image/rosemary_leaves.webp/"/>
+    <hyperlink ref="G111" r:id="rId115" display="https://vitamin.foobar.in/static/image/ground_sage.png/"/>
+    <hyperlink ref="G112" r:id="rId116" display="https://vitamin.foobar.in/static/image/rubbed_sage.png/"/>
+    <hyperlink ref="G113" r:id="rId117" display="https://vitamin.foobar.in/static/image/sesame_seeds.png/"/>
+    <hyperlink ref="G114" r:id="rId118" display="https://vitamin.foobar.in/static/image/sesame_seeds.png/"/>
+    <hyperlink ref="G115" r:id="rId119" display="https://vitamin.foobar.in/static/image/tarragon_leaves.png/"/>
+    <hyperlink ref="G116" r:id="rId120" display="https://vitamin.foobar.in/static/image/ground_thyme.png/"/>
+    <hyperlink ref="G117" r:id="rId121" display="https://vitamin.foobar.in/static/image/thyme_leaves.webp/"/>
+    <hyperlink ref="G118" r:id="rId122" display="https://vitamin.foobar.in/static/image/ground_turmeric.png/"/>
+    <hyperlink ref="G119" r:id="rId123" display="https://vitamin.foobar.in/static/image/ground_turmeric.png/"/>
+    <hyperlink ref="G120" r:id="rId124" display="https://vitamin.foobar.in/static/image/ground_turmeric.png/"/>
+    <hyperlink ref="G121" r:id="rId125" display="https://vitamin.foobar.in/static/image/ground_turmeric.png/"/>
+    <hyperlink ref="G122" r:id="rId126" display="https://vitamin.foobar.in/static/image/white"/>
+    <hyperlink ref="G123" r:id="rId127" display="https://vitamin.foobar.in/static/image/white_pepper.webp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
